--- a/data/results/results_one_sample_exercise.xlsx
+++ b/data/results/results_one_sample_exercise.xlsx
@@ -412,26 +412,31 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eicosadienoic Acid</t>
+          <t>Palmitoleic Acid</t>
         </is>
       </c>
       <c r="C2">
-        <v>1.473226921406848</v>
+        <v>11.45270881728521</v>
       </c>
       <c r="D2">
-        <v>0.162</v>
+        <v>0.00444</v>
       </c>
       <c r="E2">
-        <v>0.06845989653706271</v>
+        <v>1.138052240536476e-27</v>
       </c>
       <c r="F2">
-        <v>0.9696842105263158</v>
+        <v>0.05481684210526316</v>
       </c>
       <c r="G2">
-        <v>0.790484985457369</v>
+        <v>2.35261702988538</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I2">
-        <v>0.9999974650769542</v>
+        <v>7.13179404069525e-26</v>
       </c>
     </row>
     <row r="3">
@@ -442,26 +447,31 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Myristic Acid_iso1</t>
+          <t>Heptadecanoate</t>
         </is>
       </c>
       <c r="C3">
-        <v>1.42059620388327</v>
+        <v>11.11138689553784</v>
       </c>
       <c r="D3">
-        <v>0.174</v>
+        <v>1.17e-06</v>
       </c>
       <c r="E3">
-        <v>0.0833925290814836</v>
+        <v>1.228338650528386e-66</v>
       </c>
       <c r="F3">
-        <v>0.9696842105263158</v>
+        <v>0.00019834</v>
       </c>
       <c r="G3">
-        <v>0.7594507517174003</v>
+        <v>5.931814138253839</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I3">
-        <v>0.9999974650769542</v>
+        <v>2.309276662993365e-64</v>
       </c>
     </row>
     <row r="4">
@@ -472,23 +482,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4-Methylcatechol_iso1</t>
+          <t>Docosapentaenoic Acid</t>
         </is>
       </c>
       <c r="C4">
-        <v>1.156577424445111</v>
+        <v>10.9954690779768</v>
       </c>
       <c r="D4">
-        <v>0.0183</v>
+        <v>0.00428</v>
       </c>
       <c r="E4">
-        <v>0.009781155346269537</v>
+        <v>9.049262841161958e-27</v>
       </c>
       <c r="F4">
-        <v>0.9696842105263158</v>
+        <v>0.05481684210526316</v>
       </c>
       <c r="G4">
-        <v>1.73754891026957</v>
+        <v>2.368556230986828</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -496,7 +506,7 @@
         </is>
       </c>
       <c r="I4">
-        <v>0.9999974650769542</v>
+        <v>4.253153535346121e-25</v>
       </c>
     </row>
     <row r="5">
@@ -507,26 +517,31 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4-Coumarate</t>
+          <t>Eicosadienoic Acid</t>
         </is>
       </c>
       <c r="C5">
-        <v>1.02771589634256</v>
+        <v>10.87104472500466</v>
       </c>
       <c r="D5">
-        <v>0.451</v>
+        <v>0.00453</v>
       </c>
       <c r="E5">
-        <v>0.4411555372812267</v>
+        <v>3.306273095275561e-26</v>
       </c>
       <c r="F5">
-        <v>0.9897011494252873</v>
+        <v>0.05481684210526316</v>
       </c>
       <c r="G5">
-        <v>0.3458234581220395</v>
+        <v>2.343901797987168</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I5">
-        <v>0.9999974650769542</v>
+        <v>1.243158683823611e-24</v>
       </c>
     </row>
     <row r="6">
@@ -537,26 +552,31 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Docosapentaenoic Acid</t>
+          <t>Caffeine</t>
         </is>
       </c>
       <c r="C6">
-        <v>1.002299738623968</v>
+        <v>10.50627318058191</v>
       </c>
       <c r="D6">
-        <v>0.172</v>
+        <v>0.00458</v>
       </c>
       <c r="E6">
-        <v>0.171305127381806</v>
+        <v>2.657135524832919e-25</v>
       </c>
       <c r="F6">
-        <v>0.9696842105263158</v>
+        <v>0.05481684210526316</v>
       </c>
       <c r="G6">
-        <v>0.7644715530924511</v>
+        <v>2.339134521996131</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I6">
-        <v>0.9999974650769542</v>
+        <v>8.325691311143145e-24</v>
       </c>
     </row>
     <row r="7">
@@ -567,26 +587,31 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Heptadecanoate</t>
+          <t>Pyrocatechol</t>
         </is>
       </c>
       <c r="C7">
-        <v>0.9184873788326219</v>
+        <v>10.29669483174695</v>
       </c>
       <c r="D7">
-        <v>0.101</v>
+        <v>0.00453</v>
       </c>
       <c r="E7">
-        <v>0.121753582390627</v>
+        <v>7.337674973821906e-25</v>
       </c>
       <c r="F7">
-        <v>0.9696842105263158</v>
+        <v>0.05481684210526316</v>
       </c>
       <c r="G7">
-        <v>0.9956786262173574</v>
+        <v>2.343901797987168</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I7">
-        <v>0.9999974650769542</v>
+        <v>1.970689850112169e-23</v>
       </c>
     </row>
     <row r="8">
@@ -597,26 +622,31 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Glutarate</t>
+          <t>Linoleic Acid (18:2 N?6)</t>
         </is>
       </c>
       <c r="C8">
-        <v>0.8854446935526623</v>
+        <v>10.24097380111348</v>
       </c>
       <c r="D8">
-        <v>0.332</v>
+        <v>0.0252</v>
       </c>
       <c r="E8">
-        <v>0.3766988178167221</v>
+        <v>4.253875936852038e-17</v>
       </c>
       <c r="F8">
-        <v>0.9696842105263158</v>
+        <v>0.08598688524590165</v>
       </c>
       <c r="G8">
-        <v>0.4788619162959637</v>
+        <v>1.598599459218456</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I8">
-        <v>0.9999974650769542</v>
+        <v>5.598113873389264e-16</v>
       </c>
     </row>
     <row r="9">
@@ -627,26 +657,31 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Palmitoleic Acid</t>
+          <t>Docosahexaenoic Acid (22:6 N?3)</t>
         </is>
       </c>
       <c r="C9">
-        <v>0.7954181910995692</v>
+        <v>10.18047252645169</v>
       </c>
       <c r="D9">
-        <v>0.228</v>
+        <v>0.00482</v>
       </c>
       <c r="E9">
-        <v>0.3085245286092433</v>
+        <v>2.584187537419936e-24</v>
       </c>
       <c r="F9">
-        <v>0.9696842105263158</v>
+        <v>0.05481684210526316</v>
       </c>
       <c r="G9">
-        <v>0.6420651529995461</v>
+        <v>2.31695296176115</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I9">
-        <v>0.9999974650769542</v>
+        <v>6.072840712936849e-23</v>
       </c>
     </row>
     <row r="10">
@@ -657,26 +692,31 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Methionine_iso1</t>
+          <t>Paraxanthine</t>
         </is>
       </c>
       <c r="C10">
-        <v>0.7216759005099693</v>
+        <v>9.761876802875364</v>
       </c>
       <c r="D10">
-        <v>0.153</v>
+        <v>0.00485</v>
       </c>
       <c r="E10">
-        <v>0.257995097912147</v>
+        <v>2.561509448648144e-23</v>
       </c>
       <c r="F10">
-        <v>0.9696842105263158</v>
+        <v>0.05481684210526316</v>
       </c>
       <c r="G10">
-        <v>0.8153085691824012</v>
+        <v>2.314258261397736</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I10">
-        <v>0.9999974650769542</v>
+        <v>5.350708626065013e-22</v>
       </c>
     </row>
     <row r="11">
@@ -687,26 +727,31 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pyrocatechol</t>
+          <t>4-Methylcatechol_iso1</t>
         </is>
       </c>
       <c r="C11">
-        <v>0.7090326806236157</v>
+        <v>9.301698334409782</v>
       </c>
       <c r="D11">
-        <v>0.0346</v>
+        <v>2.11e-06</v>
       </c>
       <c r="E11">
-        <v>0.09207828253537781</v>
+        <v>1.607635426311509e-53</v>
       </c>
       <c r="F11">
-        <v>0.9696842105263158</v>
+        <v>0.00019834</v>
       </c>
       <c r="G11">
-        <v>1.460923901207223</v>
+        <v>5.675717544702307</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I11">
-        <v>0.9999974650769542</v>
+        <v>1.511177300732818e-51</v>
       </c>
     </row>
     <row r="12">
@@ -717,26 +762,31 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Biliverdin_iso1</t>
+          <t>Palmitoylcarnitine_[M+Na]+</t>
         </is>
       </c>
       <c r="C12">
-        <v>0.7033616682789259</v>
+        <v>8.811669958473651</v>
       </c>
       <c r="D12">
-        <v>0.184</v>
+        <v>0.00405</v>
       </c>
       <c r="E12">
-        <v>0.304019217945464</v>
+        <v>8.27338631781077e-22</v>
       </c>
       <c r="F12">
-        <v>0.9696842105263158</v>
+        <v>0.05481684210526316</v>
       </c>
       <c r="G12">
-        <v>0.7351821769904635</v>
+        <v>2.392544976785331</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I12">
-        <v>0.9999974650769542</v>
+        <v>1.555396627748425e-20</v>
       </c>
     </row>
     <row r="13">
@@ -747,26 +797,31 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Caffeine</t>
+          <t>Pregnanediol-3-Glucuronide</t>
         </is>
       </c>
       <c r="C13">
-        <v>0.6684010755396832</v>
+        <v>8.662011724597406</v>
       </c>
       <c r="D13">
-        <v>0.11</v>
+        <v>0.00547</v>
       </c>
       <c r="E13">
-        <v>0.2286998289246038</v>
+        <v>2.549292683301104e-20</v>
       </c>
       <c r="F13">
-        <v>0.9696842105263158</v>
+        <v>0.05481684210526316</v>
       </c>
       <c r="G13">
-        <v>0.958607314841775</v>
+        <v>2.262012673666569</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I13">
-        <v>0.9999974650769542</v>
+        <v>4.356972949641888e-19</v>
       </c>
     </row>
     <row r="14">
@@ -777,26 +832,31 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2-Hydroxyphenylacetate_iso2</t>
+          <t>Arachidonic Acid</t>
         </is>
       </c>
       <c r="C14">
-        <v>0.644520025088928</v>
+        <v>8.369642788080766</v>
       </c>
       <c r="D14">
-        <v>0.105</v>
+        <v>0.0263</v>
       </c>
       <c r="E14">
-        <v>0.2339574625622045</v>
+        <v>5.964774442436221e-14</v>
       </c>
       <c r="F14">
-        <v>0.9696842105263158</v>
+        <v>0.08598688524590165</v>
       </c>
       <c r="G14">
-        <v>0.9788107009300619</v>
+        <v>1.580044251510242</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I14">
-        <v>0.9999974650769542</v>
+        <v>5.339893310371475e-13</v>
       </c>
     </row>
     <row r="15">
@@ -807,26 +867,31 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Arachidonylcarnitine</t>
+          <t>Itaconate_iso2</t>
         </is>
       </c>
       <c r="C15">
-        <v>0.57373283912492</v>
+        <v>8.188668234457431</v>
       </c>
       <c r="D15">
-        <v>0.0608</v>
+        <v>0.0248</v>
       </c>
       <c r="E15">
-        <v>0.2005790397694766</v>
+        <v>7.123566450917562e-14</v>
       </c>
       <c r="F15">
-        <v>0.9696842105263158</v>
+        <v>0.08598688524590165</v>
       </c>
       <c r="G15">
-        <v>1.216096420727265</v>
+        <v>1.605548319173784</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I15">
-        <v>0.9999974650769542</v>
+        <v>6.087411330784098e-13</v>
       </c>
     </row>
     <row r="16">
@@ -837,26 +902,31 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Paraxanthine</t>
+          <t>Dehydroepiandrosterone 3-Sulfate (Dheas)_iso3</t>
         </is>
       </c>
       <c r="C16">
-        <v>0.5726579936570253</v>
+        <v>8.160359852288746</v>
       </c>
       <c r="D16">
-        <v>0.139</v>
+        <v>0.07489999999999999</v>
       </c>
       <c r="E16">
-        <v>0.3230283022813397</v>
+        <v>6.536821292587353e-10</v>
       </c>
       <c r="F16">
-        <v>0.9696842105263158</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G16">
-        <v>0.8569851997459049</v>
+        <v>1.125518182300534</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I16">
-        <v>0.9999974650769542</v>
+        <v>2.50800490409474e-09</v>
       </c>
     </row>
     <row r="17">
@@ -867,26 +937,31 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Linoleic Acid (18:2 N?6)</t>
+          <t>_Linolenic Acid (18:3 N?3)</t>
         </is>
       </c>
       <c r="C17">
-        <v>0.5368025553402813</v>
+        <v>8.089379937711684</v>
       </c>
       <c r="D17">
-        <v>0.39</v>
+        <v>0.0256</v>
       </c>
       <c r="E17">
-        <v>0.6032293113837097</v>
+        <v>1.329377456440603e-13</v>
       </c>
       <c r="F17">
-        <v>0.9696842105263158</v>
+        <v>0.08598688524590165</v>
       </c>
       <c r="G17">
-        <v>0.4089353929735008</v>
+        <v>1.59176003468815</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I17">
-        <v>0.9999974650769542</v>
+        <v>1.08662157309058e-12</v>
       </c>
     </row>
     <row r="18">
@@ -897,26 +972,31 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5?-Dihydroprogesterone/5A-Pregnane-3,20-Dione_[M+Na]+_iso2</t>
+          <t>Oleic Acid</t>
         </is>
       </c>
       <c r="C18">
-        <v>0.5294287705357821</v>
+        <v>8.011815040135392</v>
       </c>
       <c r="D18">
-        <v>0.516</v>
+        <v>0.07539999999999999</v>
       </c>
       <c r="E18">
-        <v>0.7044797026709371</v>
+        <v>1.013227257108711e-09</v>
       </c>
       <c r="F18">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G18">
-        <v>0.2873502983727886</v>
+        <v>1.122628654130226</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I18">
-        <v>0.9999974650769542</v>
+        <v>3.809734486728752e-09</v>
       </c>
     </row>
     <row r="19">
@@ -927,26 +1007,31 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Tigloylcarnitine</t>
+          <t>Oxoglutarate</t>
         </is>
       </c>
       <c r="C19">
-        <v>0.4816433298087439</v>
+        <v>7.827745230689851</v>
       </c>
       <c r="D19">
-        <v>0.363</v>
+        <v>0.00472</v>
       </c>
       <c r="E19">
-        <v>0.6138071760103012</v>
+        <v>6.197414922086024e-19</v>
       </c>
       <c r="F19">
-        <v>0.9696842105263158</v>
+        <v>0.05481684210526316</v>
       </c>
       <c r="G19">
-        <v>0.4400933749638875</v>
+        <v>2.326058001365912</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I19">
-        <v>0.9999974650769542</v>
+        <v>9.70928337793477e-18</v>
       </c>
     </row>
     <row r="20">
@@ -957,26 +1042,31 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Proline</t>
+          <t>Hydroxyphenyllactate</t>
         </is>
       </c>
       <c r="C20">
-        <v>0.4765623673008209</v>
+        <v>7.763766276611565</v>
       </c>
       <c r="D20">
-        <v>0.708</v>
+        <v>0.0246</v>
       </c>
       <c r="E20">
-        <v>0.8482648948929224</v>
+        <v>3.218075638458491e-13</v>
       </c>
       <c r="F20">
-        <v>0.9945806451612903</v>
+        <v>0.08598688524590165</v>
       </c>
       <c r="G20">
-        <v>0.149966742310231</v>
+        <v>1.609064892896621</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I20">
-        <v>0.9999974650769542</v>
+        <v>2.520825916792485e-12</v>
       </c>
     </row>
     <row r="21">
@@ -987,26 +1077,31 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Indole-3-Methyl Acetate</t>
+          <t>4-Methylcatechol_iso2</t>
         </is>
       </c>
       <c r="C21">
-        <v>0.3701733684230649</v>
+        <v>7.594537537186438</v>
       </c>
       <c r="D21">
-        <v>0.286</v>
+        <v>0.0262</v>
       </c>
       <c r="E21">
-        <v>0.6291601152187888</v>
+        <v>9.721421741573764e-13</v>
       </c>
       <c r="F21">
-        <v>0.9696842105263158</v>
+        <v>0.08598688524590165</v>
       </c>
       <c r="G21">
-        <v>0.543633966870957</v>
+        <v>1.581698708680255</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I21">
-        <v>0.9999974650769542</v>
+        <v>7.31050914966347e-12</v>
       </c>
     </row>
     <row r="22">
@@ -1017,26 +1112,31 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Itaconate_iso1</t>
+          <t>Urate_iso2</t>
         </is>
       </c>
       <c r="C22">
-        <v>0.3269498101956063</v>
+        <v>7.531120930073474</v>
       </c>
       <c r="D22">
-        <v>0.455</v>
+        <v>0.07480000000000001</v>
       </c>
       <c r="E22">
-        <v>0.7730131662504582</v>
+        <v>3.305344680909744e-09</v>
       </c>
       <c r="F22">
-        <v>0.9897011494252873</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G22">
-        <v>0.3419886033428876</v>
+        <v>1.126098402135539</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I22">
-        <v>0.9999974650769542</v>
+        <v>1.018696393460708e-08</v>
       </c>
     </row>
     <row r="23">
@@ -1047,26 +1147,31 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ethylmalonate</t>
+          <t>Palmitate</t>
         </is>
       </c>
       <c r="C23">
-        <v>0.324237587389136</v>
+        <v>7.521642589174711</v>
       </c>
       <c r="D23">
-        <v>0.279</v>
+        <v>0.0764</v>
       </c>
       <c r="E23">
-        <v>0.6610648178063064</v>
+        <v>3.97216643914654e-09</v>
       </c>
       <c r="F23">
-        <v>0.9696842105263158</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G23">
-        <v>0.5543957967264024</v>
+        <v>1.11690664142431</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I23">
-        <v>0.9999974650769542</v>
+        <v>1.185344905650079e-08</v>
       </c>
     </row>
     <row r="24">
@@ -1077,26 +1182,31 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3-Methylglutaconate</t>
+          <t>Oleoylcarnitine_[M+Na]+</t>
         </is>
       </c>
       <c r="C24">
-        <v>0.3240373932258587</v>
+        <v>7.439114178294812</v>
       </c>
       <c r="D24">
-        <v>0.223</v>
+        <v>0.0248</v>
       </c>
       <c r="E24">
-        <v>0.6149310273624399</v>
+        <v>1.138001238997473e-12</v>
       </c>
       <c r="F24">
-        <v>0.9696842105263158</v>
+        <v>0.08598688524590165</v>
       </c>
       <c r="G24">
-        <v>0.6516951369518393</v>
+        <v>1.605548319173784</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I24">
-        <v>0.9999974650769542</v>
+        <v>8.228624343520191e-12</v>
       </c>
     </row>
     <row r="25">
@@ -1107,26 +1217,31 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>5,8-Tetradecandienoylcarnitine</t>
+          <t>L-Tryptophan</t>
         </is>
       </c>
       <c r="C25">
-        <v>0.3230902231781863</v>
+        <v>7.427194013384987</v>
       </c>
       <c r="D25">
-        <v>0.39</v>
+        <v>0.0742</v>
       </c>
       <c r="E25">
-        <v>0.7376952254753768</v>
+        <v>4.076342320235976e-09</v>
       </c>
       <c r="F25">
-        <v>0.9696842105263158</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G25">
-        <v>0.4089353929735008</v>
+        <v>1.129596094720973</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I25">
-        <v>0.9999974650769542</v>
+        <v>1.197425556569318e-08</v>
       </c>
     </row>
     <row r="26">
@@ -1137,26 +1252,31 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Eicosenoic Acid</t>
+          <t>Adrenic Acid (22:4 N?6)</t>
         </is>
       </c>
       <c r="C26">
-        <v>0.3220364041425384</v>
+        <v>7.374672919536301</v>
       </c>
       <c r="D26">
-        <v>0.622</v>
+        <v>0.025</v>
       </c>
       <c r="E26">
-        <v>0.8582088662943076</v>
+        <v>1.532256832098791e-12</v>
       </c>
       <c r="F26">
-        <v>0.9945806451612903</v>
+        <v>0.08598688524590165</v>
       </c>
       <c r="G26">
-        <v>0.2062096153091813</v>
+        <v>1.602059991327962</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I26">
-        <v>0.9999974650769542</v>
+        <v>1.066904757165084e-11</v>
       </c>
     </row>
     <row r="27">
@@ -1167,26 +1287,31 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Kynurenic Acid</t>
+          <t>2-Hydroxybutyrate_iso1</t>
         </is>
       </c>
       <c r="C27">
-        <v>0.3183865790310071</v>
+        <v>7.342776544067471</v>
       </c>
       <c r="D27">
-        <v>0.09669999999999999</v>
+        <v>0.0248</v>
       </c>
       <c r="E27">
-        <v>0.4753061196053073</v>
+        <v>1.624865664609208e-12</v>
       </c>
       <c r="F27">
-        <v>0.9696842105263158</v>
+        <v>0.08598688524590165</v>
       </c>
       <c r="G27">
-        <v>1.014573525916998</v>
+        <v>1.605548319173784</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I27">
-        <v>0.9999974650769542</v>
+        <v>1.090981231951897e-11</v>
       </c>
     </row>
     <row r="28">
@@ -1201,22 +1326,27 @@
         </is>
       </c>
       <c r="C28">
-        <v>0.3066056963576557</v>
+        <v>7.339982150402448</v>
       </c>
       <c r="D28">
-        <v>0.264</v>
+        <v>0.00481</v>
       </c>
       <c r="E28">
-        <v>0.6647532499065057</v>
+        <v>9.704792036767953e-18</v>
       </c>
       <c r="F28">
-        <v>0.9696842105263158</v>
+        <v>0.05481684210526316</v>
       </c>
       <c r="G28">
-        <v>0.5783960731301689</v>
+        <v>2.317854923626168</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I28">
-        <v>0.9999974650769542</v>
+        <v>1.403462233009519e-16</v>
       </c>
     </row>
     <row r="29">
@@ -1227,26 +1357,31 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Decanoylcarnitine</t>
+          <t>3-Hydroxyphenylacetate</t>
         </is>
       </c>
       <c r="C29">
-        <v>0.3053794975920194</v>
+        <v>7.283608234816186</v>
       </c>
       <c r="D29">
-        <v>0.416</v>
+        <v>0.07489999999999999</v>
       </c>
       <c r="E29">
-        <v>0.7650307868859639</v>
+        <v>6.34112769563198e-09</v>
       </c>
       <c r="F29">
-        <v>0.9897011494252873</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G29">
-        <v>0.3809066693732573</v>
+        <v>1.125518182300534</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I29">
-        <v>0.9999974650769542</v>
+        <v>1.806260616331534e-08</v>
       </c>
     </row>
     <row r="30">
@@ -1257,26 +1392,31 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Cystine</t>
+          <t>Indoxyl Sulfate_iso4</t>
         </is>
       </c>
       <c r="C30">
-        <v>0.3005654325911294</v>
+        <v>7.11147663138737</v>
       </c>
       <c r="D30">
-        <v>0.175</v>
+        <v>0.0742</v>
       </c>
       <c r="E30">
-        <v>0.5922204550280985</v>
+        <v>9.26624480152371e-09</v>
       </c>
       <c r="F30">
-        <v>0.9696842105263158</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G30">
-        <v>0.7569619513137056</v>
+        <v>1.129596094720973</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I30">
-        <v>0.9999974650769542</v>
+        <v>2.524715974907909e-08</v>
       </c>
     </row>
     <row r="31">
@@ -1287,26 +1427,31 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Lauroylcarnitine</t>
+          <t>2-Hydroxyphenylacetate_iso2</t>
         </is>
       </c>
       <c r="C31">
-        <v>0.2918325140782165</v>
+        <v>7.105373589769409</v>
       </c>
       <c r="D31">
-        <v>0.302</v>
+        <v>0.00532</v>
       </c>
       <c r="E31">
-        <v>0.7050974091115616</v>
+        <v>6.946284572057574e-17</v>
       </c>
       <c r="F31">
-        <v>0.9696842105263158</v>
+        <v>0.05481684210526316</v>
       </c>
       <c r="G31">
-        <v>0.5199930570428494</v>
+        <v>2.274088367704952</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I31">
-        <v>0.9999974650769542</v>
+        <v>7.722107203732639e-16</v>
       </c>
     </row>
     <row r="32">
@@ -1317,26 +1462,31 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Creatinine</t>
+          <t>Indoleacetaldehyde_iso2</t>
         </is>
       </c>
       <c r="C32">
-        <v>0.2778403486736014</v>
+        <v>7.094768869937007</v>
       </c>
       <c r="D32">
-        <v>0.336</v>
+        <v>0.00496</v>
       </c>
       <c r="E32">
-        <v>0.7385806742347928</v>
+        <v>4.466580218129732e-17</v>
       </c>
       <c r="F32">
-        <v>0.9696842105263158</v>
+        <v>0.05481684210526316</v>
       </c>
       <c r="G32">
-        <v>0.4736607226101559</v>
+        <v>2.304518323509802</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I32">
-        <v>0.9999974650769542</v>
+        <v>5.598113873389264e-16</v>
       </c>
     </row>
     <row r="33">
@@ -1347,26 +1497,31 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3-Indoleacrylic Acid_iso1</t>
+          <t>Stearate</t>
         </is>
       </c>
       <c r="C33">
-        <v>0.2700152935887568</v>
+        <v>7.004718495213498</v>
       </c>
       <c r="D33">
-        <v>0.196</v>
+        <v>0.07480000000000001</v>
       </c>
       <c r="E33">
-        <v>0.6440184589089907</v>
+        <v>1.294188972967172e-08</v>
       </c>
       <c r="F33">
-        <v>0.9696842105263158</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G33">
-        <v>0.707743928643524</v>
+        <v>1.126098402135539</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I33">
-        <v>0.9999974650769542</v>
+        <v>3.42686657630744e-08</v>
       </c>
     </row>
     <row r="34">
@@ -1377,26 +1532,31 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Methionine_iso2</t>
+          <t>Benzoate</t>
         </is>
       </c>
       <c r="C34">
-        <v>0.2681319064818645</v>
+        <v>6.818097213033417</v>
       </c>
       <c r="D34">
-        <v>0.426</v>
+        <v>0.00427</v>
       </c>
       <c r="E34">
-        <v>0.7954866383649466</v>
+        <v>6.982756514013557e-17</v>
       </c>
       <c r="F34">
-        <v>0.9897011494252873</v>
+        <v>0.05481684210526316</v>
       </c>
       <c r="G34">
-        <v>0.3705904008972811</v>
+        <v>2.369572124974976</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I34">
-        <v>0.9999974650769542</v>
+        <v>7.722107203732639e-16</v>
       </c>
     </row>
     <row r="35">
@@ -1407,26 +1567,31 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Histidine</t>
+          <t>Pregnenolone Sulfate</t>
         </is>
       </c>
       <c r="C35">
-        <v>0.2666045149364496</v>
+        <v>6.817649862505966</v>
       </c>
       <c r="D35">
-        <v>0.356</v>
+        <v>0.0752</v>
       </c>
       <c r="E35">
-        <v>0.759302000829711</v>
+        <v>2.179950917644769e-08</v>
       </c>
       <c r="F35">
-        <v>0.9696842105263158</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G35">
-        <v>0.4485500020271249</v>
+        <v>1.123782159408358</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I35">
-        <v>0.9999974650769542</v>
+        <v>5.69209406273912e-08</v>
       </c>
     </row>
     <row r="36">
@@ -1437,26 +1602,31 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Indoleacetaldehyde_iso1</t>
+          <t>Arachidonylcarnitine</t>
         </is>
       </c>
       <c r="C36">
-        <v>0.2665889925075505</v>
+        <v>6.740175398237803</v>
       </c>
       <c r="D36">
-        <v>0.699</v>
+        <v>0.00461</v>
       </c>
       <c r="E36">
-        <v>0.9089486039938021</v>
+        <v>1.790335628394551e-16</v>
       </c>
       <c r="F36">
-        <v>0.9945806451612903</v>
+        <v>0.05481684210526316</v>
       </c>
       <c r="G36">
-        <v>0.1555228242543186</v>
+        <v>2.336299074610352</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I36">
-        <v>0.9999974650769542</v>
+        <v>1.869906100767642e-15</v>
       </c>
     </row>
     <row r="37">
@@ -1467,26 +1637,31 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Adrenic Acid (22:4 N?6)</t>
+          <t>Citrate_iso1</t>
         </is>
       </c>
       <c r="C37">
-        <v>0.265308550035425</v>
+        <v>6.740129409274252</v>
       </c>
       <c r="D37">
-        <v>0.5580000000000001</v>
+        <v>0.0741</v>
       </c>
       <c r="E37">
-        <v>0.8566035831203169</v>
+        <v>2.412284163761947e-08</v>
       </c>
       <c r="F37">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G37">
-        <v>0.2533658010624212</v>
+        <v>1.130181792020672</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I37">
-        <v>0.9999974650769542</v>
+        <v>6.212457846400632e-08</v>
       </c>
     </row>
     <row r="38">
@@ -1497,26 +1672,31 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Stearate</t>
+          <t>Cystine</t>
         </is>
       </c>
       <c r="C38">
-        <v>0.2635529210140876</v>
+        <v>6.71708823947336</v>
       </c>
       <c r="D38">
-        <v>0.512</v>
+        <v>0.00554</v>
       </c>
       <c r="E38">
-        <v>0.8382571162469965</v>
+        <v>6.965559048342196e-16</v>
       </c>
       <c r="F38">
-        <v>0.9945806451612903</v>
+        <v>0.05481684210526316</v>
       </c>
       <c r="G38">
-        <v>0.2907300390241692</v>
+        <v>2.25649023527157</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I38">
-        <v>0.9999974650769542</v>
+        <v>6.547625505441664e-15</v>
       </c>
     </row>
     <row r="39">
@@ -1527,26 +1707,31 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>O-Octanoylcarnitine</t>
+          <t>Homovanillate_iso1</t>
         </is>
       </c>
       <c r="C39">
-        <v>0.2563452685388439</v>
+        <v>6.672393742068152</v>
       </c>
       <c r="D39">
-        <v>0.442</v>
+        <v>0.00458</v>
       </c>
       <c r="E39">
-        <v>0.8111584121630756</v>
+        <v>2.468160817776828e-16</v>
       </c>
       <c r="F39">
-        <v>0.9897011494252873</v>
+        <v>0.05481684210526316</v>
       </c>
       <c r="G39">
-        <v>0.3545777306509081</v>
+        <v>2.339134521996131</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I39">
-        <v>0.9999974650769542</v>
+        <v>2.442180177589703e-15</v>
       </c>
     </row>
     <row r="40">
@@ -1557,26 +1742,31 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Trans-2-Dodecenoylcarnitine</t>
+          <t>Methionine_iso1</t>
         </is>
       </c>
       <c r="C40">
-        <v>0.2468978524112819</v>
+        <v>6.637817240235742</v>
       </c>
       <c r="D40">
-        <v>0.58</v>
+        <v>0.024</v>
       </c>
       <c r="E40">
-        <v>0.8741598985563908</v>
+        <v>1.770672550163038e-11</v>
       </c>
       <c r="F40">
-        <v>0.9945806451612903</v>
+        <v>0.08598688524590165</v>
       </c>
       <c r="G40">
-        <v>0.2365720064370627</v>
+        <v>1.619788758288394</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I40">
-        <v>0.9999974650769542</v>
+        <v>1.109621464768837e-10</v>
       </c>
     </row>
     <row r="41">
@@ -1587,26 +1777,31 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Oleoylcarnitine_[M+Na]+</t>
+          <t>Citrate_iso2</t>
         </is>
       </c>
       <c r="C41">
-        <v>0.2453478612956806</v>
+        <v>6.598175714820941</v>
       </c>
       <c r="D41">
-        <v>0.288</v>
+        <v>0.075</v>
       </c>
       <c r="E41">
-        <v>0.7368228797577625</v>
+        <v>3.779693183721925e-08</v>
       </c>
       <c r="F41">
-        <v>0.9696842105263158</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G41">
-        <v>0.5406075122407692</v>
+        <v>1.1249387366083</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I41">
-        <v>0.9999974650769542</v>
+        <v>9.602463764050296e-08</v>
       </c>
     </row>
     <row r="42">
@@ -1617,26 +1812,31 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2-Hydroxy-4-(Methylthio)Butanoate</t>
+          <t>Methionine_iso2</t>
         </is>
       </c>
       <c r="C42">
-        <v>0.2449948277754796</v>
+        <v>6.591087267425759</v>
       </c>
       <c r="D42">
-        <v>0.242</v>
+        <v>0.0267</v>
       </c>
       <c r="E42">
-        <v>0.7063792799622821</v>
+        <v>4.255968543292694e-11</v>
       </c>
       <c r="F42">
-        <v>0.9696842105263158</v>
+        <v>0.08598688524590165</v>
       </c>
       <c r="G42">
-        <v>0.6161846340195687</v>
+        <v>1.573488738635425</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I42">
-        <v>0.9999974650769542</v>
+        <v>2.424612382239474e-10</v>
       </c>
     </row>
     <row r="43">
@@ -1647,26 +1847,31 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Indoleacetaldehyde_iso2</t>
+          <t>Hexanoylcarnitine</t>
         </is>
       </c>
       <c r="C43">
-        <v>0.2449636692054306</v>
+        <v>6.545815225158692</v>
       </c>
       <c r="D43">
-        <v>0.222</v>
+        <v>0.0245</v>
       </c>
       <c r="E43">
-        <v>0.6916401976911603</v>
+        <v>2.856135648354741e-11</v>
       </c>
       <c r="F43">
-        <v>0.9696842105263158</v>
+        <v>0.08598688524590165</v>
       </c>
       <c r="G43">
-        <v>0.6536470255493614</v>
+        <v>1.610833915635468</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I43">
-        <v>0.9999974650769542</v>
+        <v>1.732108070615133e-10</v>
       </c>
     </row>
     <row r="44">
@@ -1677,26 +1882,31 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Pregnanediol-3-Glucuronide</t>
+          <t>Trans-2-Dodecenoylcarnitine</t>
         </is>
       </c>
       <c r="C44">
-        <v>0.2392625275761455</v>
+        <v>6.475361174227309</v>
       </c>
       <c r="D44">
-        <v>0.5649999999999999</v>
+        <v>0.0253</v>
       </c>
       <c r="E44">
-        <v>0.8723172986306047</v>
+        <v>4.566974880666819e-11</v>
       </c>
       <c r="F44">
-        <v>0.9945806451612903</v>
+        <v>0.08598688524590165</v>
       </c>
       <c r="G44">
-        <v>0.2479515521805615</v>
+        <v>1.596879478824182</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I44">
-        <v>0.9999974650769542</v>
+        <v>2.525268463427535e-10</v>
       </c>
     </row>
     <row r="45">
@@ -1707,26 +1917,31 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Docosahexaenoic Acid (22:6 N?3)</t>
+          <t>Lauroylcarnitine</t>
         </is>
       </c>
       <c r="C45">
-        <v>0.2377861718291287</v>
+        <v>6.434498158494608</v>
       </c>
       <c r="D45">
-        <v>0.458</v>
+        <v>0.0276</v>
       </c>
       <c r="E45">
-        <v>0.8305360733811097</v>
+        <v>9.290356073739074e-11</v>
       </c>
       <c r="F45">
-        <v>0.9897011494252873</v>
+        <v>0.08598688524590165</v>
       </c>
       <c r="G45">
-        <v>0.3391345219961308</v>
+        <v>1.559090917934782</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I45">
-        <v>0.9999974650769542</v>
+        <v>4.158540337768919e-10</v>
       </c>
     </row>
     <row r="46">
@@ -1737,26 +1952,31 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Myristoylcarnitine</t>
+          <t>Trans-Aconitate</t>
         </is>
       </c>
       <c r="C46">
-        <v>0.2291230198086174</v>
+        <v>6.431649060533223</v>
       </c>
       <c r="D46">
-        <v>0.158</v>
+        <v>0.0248</v>
       </c>
       <c r="E46">
-        <v>0.6552301784595467</v>
+        <v>4.717117141590151e-11</v>
       </c>
       <c r="F46">
-        <v>0.9696842105263158</v>
+        <v>0.08598688524590165</v>
       </c>
       <c r="G46">
-        <v>0.8013429130455774</v>
+        <v>1.605548319173784</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I46">
-        <v>0.9999974650769542</v>
+        <v>2.533765778911281e-10</v>
       </c>
     </row>
     <row r="47">
@@ -1767,26 +1987,31 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Eicosapentaenoic Acid</t>
+          <t>3-Methylindole</t>
         </is>
       </c>
       <c r="C47">
-        <v>0.2269272780908925</v>
+        <v>6.426451083109352</v>
       </c>
       <c r="D47">
-        <v>0.449</v>
+        <v>0.0243</v>
       </c>
       <c r="E47">
-        <v>0.8338447691846929</v>
+        <v>4.218690727593806e-11</v>
       </c>
       <c r="F47">
-        <v>0.9897011494252873</v>
+        <v>0.08598688524590165</v>
       </c>
       <c r="G47">
-        <v>0.3477536589966768</v>
+        <v>1.614393726401688</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I47">
-        <v>0.9999974650769542</v>
+        <v>2.424612382239474e-10</v>
       </c>
     </row>
     <row r="48">
@@ -1797,26 +2022,31 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Indole-3-Acetate_[M+Na]+</t>
+          <t>Kynurenine</t>
         </is>
       </c>
       <c r="C48">
-        <v>0.2153601319548933</v>
+        <v>6.398586510472673</v>
       </c>
       <c r="D48">
-        <v>0.435</v>
+        <v>0.0258</v>
       </c>
       <c r="E48">
-        <v>0.8358820490816126</v>
+        <v>6.864537424461634e-11</v>
       </c>
       <c r="F48">
-        <v>0.9897011494252873</v>
+        <v>0.08598688524590165</v>
       </c>
       <c r="G48">
-        <v>0.3615107430453627</v>
+        <v>1.58838029403677</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I48">
-        <v>0.9999974650769542</v>
+        <v>3.396139567891545e-10</v>
       </c>
     </row>
     <row r="49">
@@ -1827,26 +2057,31 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Palmitoylcarnitine_[M+Na]+</t>
+          <t>Phenylalanine</t>
         </is>
       </c>
       <c r="C49">
-        <v>0.2118154200438341</v>
+        <v>6.393717477345954</v>
       </c>
       <c r="D49">
-        <v>0.135</v>
+        <v>0.0737</v>
       </c>
       <c r="E49">
-        <v>0.6543216372436239</v>
+        <v>5.739936441420762e-08</v>
       </c>
       <c r="F49">
-        <v>0.9696842105263158</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G49">
-        <v>0.8696662315049939</v>
+        <v>1.132532512140948</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I49">
-        <v>0.9999974650769542</v>
+        <v>1.438810734649471e-07</v>
       </c>
     </row>
     <row r="50">
@@ -1857,26 +2092,31 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Leucine</t>
+          <t>2-Hydroxylauric Acid</t>
         </is>
       </c>
       <c r="C50">
-        <v>0.2114684113476951</v>
+        <v>6.388566198443471</v>
       </c>
       <c r="D50">
-        <v>0.3</v>
+        <v>0.0248</v>
       </c>
       <c r="E50">
-        <v>0.7752248084783271</v>
+        <v>5.53156828762726e-11</v>
       </c>
       <c r="F50">
-        <v>0.9696842105263158</v>
+        <v>0.08598688524590165</v>
       </c>
       <c r="G50">
-        <v>0.5228787452803376</v>
+        <v>1.605548319173784</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I50">
-        <v>0.9999974650769542</v>
+        <v>2.88870788353868e-10</v>
       </c>
     </row>
     <row r="51">
@@ -1887,26 +2127,31 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Heptadec-10-Enoic Acid</t>
+          <t>2-Hydroxybutyrate_iso2</t>
         </is>
       </c>
       <c r="C51">
-        <v>0.211001262714743</v>
+        <v>6.384245802169199</v>
       </c>
       <c r="D51">
-        <v>0.653</v>
+        <v>0.0751</v>
       </c>
       <c r="E51">
-        <v>0.91400052993612</v>
+        <v>6.634512057247096e-08</v>
       </c>
       <c r="F51">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G51">
-        <v>0.185086818724926</v>
+        <v>1.124360062995832</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I51">
-        <v>0.9999974650769542</v>
+        <v>1.641168772055861e-07</v>
       </c>
     </row>
     <row r="52">
@@ -1917,26 +2162,31 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Homovanillate_iso1</t>
+          <t>Nervonate</t>
         </is>
       </c>
       <c r="C52">
-        <v>0.210409925397148</v>
+        <v>6.331957999056479</v>
       </c>
       <c r="D52">
-        <v>0.323</v>
+        <v>0.0245</v>
       </c>
       <c r="E52">
-        <v>0.7883722685895693</v>
+        <v>6.313458102517481e-11</v>
       </c>
       <c r="F52">
-        <v>0.9696842105263158</v>
+        <v>0.08598688524590165</v>
       </c>
       <c r="G52">
-        <v>0.4907974776688971</v>
+        <v>1.610833915635468</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I52">
-        <v>0.9999974650769542</v>
+        <v>3.207919252089963e-10</v>
       </c>
     </row>
     <row r="53">
@@ -1947,26 +2197,31 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2,6-Dihydroxypyridine</t>
+          <t>Dehydroisoandrosterone Sulfate/Dhea Sulfate</t>
         </is>
       </c>
       <c r="C53">
-        <v>0.2101636147095096</v>
+        <v>6.275124913320556</v>
       </c>
       <c r="D53">
-        <v>0.354</v>
+        <v>0.0741</v>
       </c>
       <c r="E53">
-        <v>0.8039275193798245</v>
+        <v>8.090364345928208e-08</v>
       </c>
       <c r="F53">
-        <v>0.9696842105263158</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G53">
-        <v>0.4509967379742122</v>
+        <v>1.130181792020672</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I53">
-        <v>0.9999974650769542</v>
+        <v>1.975309736408446e-07</v>
       </c>
     </row>
     <row r="54">
@@ -1977,26 +2232,31 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3,4-Dihydroxyphenylacetate</t>
+          <t>2,6-Dihydroxypyridine</t>
         </is>
       </c>
       <c r="C54">
-        <v>0.195499861225208</v>
+        <v>6.22230139859241</v>
       </c>
       <c r="D54">
-        <v>0.439</v>
+        <v>0.0243</v>
       </c>
       <c r="E54">
-        <v>0.8513376951679626</v>
+        <v>9.010640405865007e-11</v>
       </c>
       <c r="F54">
-        <v>0.9897011494252873</v>
+        <v>0.08598688524590165</v>
       </c>
       <c r="G54">
-        <v>0.3575354797578786</v>
+        <v>1.614393726401688</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I54">
-        <v>0.9999974650769542</v>
+        <v>4.158540337768919e-10</v>
       </c>
     </row>
     <row r="55">
@@ -2007,26 +2267,31 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Testosterone</t>
+          <t>Myristoylcarnitine</t>
         </is>
       </c>
       <c r="C55">
-        <v>0.1953165706982586</v>
+        <v>6.22174958834414</v>
       </c>
       <c r="D55">
-        <v>0.487</v>
+        <v>0.0244</v>
       </c>
       <c r="E55">
-        <v>0.8688988616713221</v>
+        <v>9.262821944498329e-11</v>
       </c>
       <c r="F55">
-        <v>0.9945806451612903</v>
+        <v>0.08598688524590165</v>
       </c>
       <c r="G55">
-        <v>0.3124710387853657</v>
+        <v>1.612610173661271</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I55">
-        <v>0.9999974650769542</v>
+        <v>4.158540337768919e-10</v>
       </c>
     </row>
     <row r="56">
@@ -2037,26 +2302,31 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3-Me-Glutarylcarnitine</t>
+          <t>Ketoleucine</t>
         </is>
       </c>
       <c r="C56">
-        <v>0.1861062912163944</v>
+        <v>6.212899584915146</v>
       </c>
       <c r="D56">
-        <v>0.203</v>
+        <v>0.0775</v>
       </c>
       <c r="E56">
-        <v>0.7432255926135829</v>
+        <v>1.257022375979357e-07</v>
       </c>
       <c r="F56">
-        <v>0.9696842105263158</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G56">
-        <v>0.6925039620867871</v>
+        <v>1.11069829749369</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I56">
-        <v>0.9999974650769542</v>
+        <v>2.991395021317964e-07</v>
       </c>
     </row>
     <row r="57">
@@ -2067,26 +2337,31 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>5-Hydroxytryptophan</t>
+          <t>Tigloylcarnitine</t>
         </is>
       </c>
       <c r="C57">
-        <v>0.184021108018246</v>
+        <v>6.194088939738217</v>
       </c>
       <c r="D57">
-        <v>0.288</v>
+        <v>0.0255</v>
       </c>
       <c r="E57">
-        <v>0.79527404094095</v>
+        <v>1.348863974606586e-10</v>
       </c>
       <c r="F57">
-        <v>0.9696842105263158</v>
+        <v>0.08598688524590165</v>
       </c>
       <c r="G57">
-        <v>0.5406075122407692</v>
+        <v>1.593459819566045</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I57">
-        <v>0.9999974650769542</v>
+        <v>5.897358772698562e-10</v>
       </c>
     </row>
     <row r="58">
@@ -2097,26 +2372,31 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>3-Hydroxyglutaric Acid_iso2</t>
+          <t>Indole-3-Methyl Acetate</t>
         </is>
       </c>
       <c r="C58">
-        <v>0.1792269390688266</v>
+        <v>6.067958411237257</v>
       </c>
       <c r="D58">
-        <v>0.343</v>
+        <v>0.0239</v>
       </c>
       <c r="E58">
-        <v>0.8254907051599913</v>
+        <v>1.446058635751351e-10</v>
       </c>
       <c r="F58">
-        <v>0.9696842105263158</v>
+        <v>0.08598688524590165</v>
       </c>
       <c r="G58">
-        <v>0.4647058799572295</v>
+        <v>1.621602099051862</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I58">
-        <v>0.9999974650769542</v>
+        <v>6.178614170937592e-10</v>
       </c>
     </row>
     <row r="59">
@@ -2127,26 +2407,31 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>L-Tryptophan</t>
+          <t>Eicosenoic Acid</t>
         </is>
       </c>
       <c r="C59">
-        <v>0.1763385024600119</v>
+        <v>6.024494518229244</v>
       </c>
       <c r="D59">
-        <v>0.339</v>
+        <v>0.07480000000000001</v>
       </c>
       <c r="E59">
-        <v>0.826334943549885</v>
+        <v>1.643714360170657e-07</v>
       </c>
       <c r="F59">
-        <v>0.9696842105263158</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G59">
-        <v>0.4698003017969178</v>
+        <v>1.126098402135539</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I59">
-        <v>0.9999974650769542</v>
+        <v>3.862728746401043e-07</v>
       </c>
     </row>
     <row r="60">
@@ -2157,26 +2442,31 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2-Methylbutyrylcarnitine</t>
+          <t>3-Hydroxyglutaric Acid_iso2</t>
         </is>
       </c>
       <c r="C60">
-        <v>0.1745953265176856</v>
+        <v>6.016860162574623</v>
       </c>
       <c r="D60">
-        <v>0.546</v>
+        <v>0.0239</v>
       </c>
       <c r="E60">
-        <v>0.8997359294340567</v>
+        <v>1.750035790521494e-10</v>
       </c>
       <c r="F60">
-        <v>0.9945806451612903</v>
+        <v>0.08598688524590165</v>
       </c>
       <c r="G60">
-        <v>0.2628073572952627</v>
+        <v>1.621602099051862</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I60">
-        <v>0.9999974650769542</v>
+        <v>7.311260635956464e-10</v>
       </c>
     </row>
     <row r="61">
@@ -2187,26 +2477,31 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2-Hydroxylauric Acid</t>
+          <t>Glycocholic Acid_iso3</t>
         </is>
       </c>
       <c r="C61">
-        <v>0.1625547413051973</v>
+        <v>5.99803827664022</v>
       </c>
       <c r="D61">
-        <v>0.611</v>
+        <v>0.07539999999999999</v>
       </c>
       <c r="E61">
-        <v>0.9230388579647608</v>
+        <v>1.846844634706259e-07</v>
       </c>
       <c r="F61">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G61">
-        <v>0.2139587897574458</v>
+        <v>1.122628654130226</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I61">
-        <v>0.9999974650769542</v>
+        <v>4.286503596602182e-07</v>
       </c>
     </row>
     <row r="62">
@@ -2217,26 +2512,31 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3-Methylindole</t>
+          <t>Kynurenic Acid</t>
         </is>
       </c>
       <c r="C62">
-        <v>0.1620656336542959</v>
+        <v>5.995139065386906</v>
       </c>
       <c r="D62">
-        <v>0.377</v>
+        <v>0.0242</v>
       </c>
       <c r="E62">
-        <v>0.8537672518804895</v>
+        <v>2.045259241569177e-10</v>
       </c>
       <c r="F62">
-        <v>0.9696842105263158</v>
+        <v>0.08598688524590165</v>
       </c>
       <c r="G62">
-        <v>0.4236586497942071</v>
+        <v>1.616184634019569</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I62">
-        <v>0.9999974650769542</v>
+        <v>8.181036966276706e-10</v>
       </c>
     </row>
     <row r="63">
@@ -2247,26 +2547,31 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Kynurenine</t>
+          <t>3,4-Dihydroxyphenylacetate</t>
         </is>
       </c>
       <c r="C63">
-        <v>0.1616251883325656</v>
+        <v>5.986455893379858</v>
       </c>
       <c r="D63">
-        <v>0.364</v>
+        <v>0.024</v>
       </c>
       <c r="E63">
-        <v>0.8493035286435691</v>
+        <v>2.010046210724503e-10</v>
       </c>
       <c r="F63">
-        <v>0.9696842105263158</v>
+        <v>0.08598688524590165</v>
       </c>
       <c r="G63">
-        <v>0.438898616350944</v>
+        <v>1.619788758288394</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I63">
-        <v>0.9999974650769542</v>
+        <v>8.181036966276706e-10</v>
       </c>
     </row>
     <row r="64">
@@ -2277,26 +2582,31 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1-Methyladenosine</t>
+          <t>5,8-Tetradecandienoylcarnitine</t>
         </is>
       </c>
       <c r="C64">
-        <v>0.1608972610690587</v>
+        <v>5.983695840407704</v>
       </c>
       <c r="D64">
-        <v>0.158</v>
+        <v>0.0278</v>
       </c>
       <c r="E64">
-        <v>0.7431322690832073</v>
+        <v>4.893699722025835e-10</v>
       </c>
       <c r="F64">
-        <v>0.9696842105263158</v>
+        <v>0.08598688524590165</v>
       </c>
       <c r="G64">
-        <v>0.8013429130455774</v>
+        <v>1.555955204081924</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I64">
-        <v>0.9999974650769542</v>
+        <v>1.916699057793452e-09</v>
       </c>
     </row>
     <row r="65">
@@ -2307,26 +2617,31 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Isovalerylcarnitine</t>
+          <t>Myristic Acid_iso1</t>
         </is>
       </c>
       <c r="C65">
-        <v>0.1580164328544779</v>
+        <v>5.807513657887544</v>
       </c>
       <c r="D65">
-        <v>0.656</v>
+        <v>0.0735</v>
       </c>
       <c r="E65">
-        <v>0.9355517119785265</v>
+        <v>2.605842948092964e-07</v>
       </c>
       <c r="F65">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G65">
-        <v>0.1830961606243397</v>
+        <v>1.133712660915805</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I65">
-        <v>0.9999974650769542</v>
+        <v>5.902391255921412e-07</v>
       </c>
     </row>
     <row r="66">
@@ -2337,26 +2652,31 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>N-Acetylneuraminate_iso1</t>
+          <t>Indoxyl Sulfate_iso3</t>
         </is>
       </c>
       <c r="C66">
-        <v>0.1575975322995323</v>
+        <v>5.796896466927461</v>
       </c>
       <c r="D66">
-        <v>0.387</v>
+        <v>0.07340000000000001</v>
       </c>
       <c r="E66">
-        <v>0.8610418601442058</v>
+        <v>2.658015427405337e-07</v>
       </c>
       <c r="F66">
-        <v>0.9696842105263158</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G66">
-        <v>0.4122890349810886</v>
+        <v>1.134303940083929</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I66">
-        <v>0.9999974650769542</v>
+        <v>5.948891670859564e-07</v>
       </c>
     </row>
     <row r="67">
@@ -2367,26 +2687,31 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>3-Indoleacrylic Acid_iso2</t>
+          <t>Decanoylcarnitine</t>
         </is>
       </c>
       <c r="C67">
-        <v>0.1494065658019088</v>
+        <v>5.774752473529603</v>
       </c>
       <c r="D67">
-        <v>0.326</v>
+        <v>0.0761</v>
       </c>
       <c r="E67">
-        <v>0.8458074639718736</v>
+        <v>3.469551032402915e-07</v>
       </c>
       <c r="F67">
-        <v>0.9696842105263158</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G67">
-        <v>0.486782399932061</v>
+        <v>1.118615343229427</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I67">
-        <v>0.9999974650769542</v>
+        <v>7.673830518726448e-07</v>
       </c>
     </row>
     <row r="68">
@@ -2397,26 +2722,31 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Benzoate</t>
+          <t>4-Coumarate</t>
         </is>
       </c>
       <c r="C68">
-        <v>0.1473147710269544</v>
+        <v>5.684996318203877</v>
       </c>
       <c r="D68">
-        <v>0.0601</v>
+        <v>0.07340000000000001</v>
       </c>
       <c r="E68">
-        <v>0.660861074931413</v>
+        <v>3.560297398138646e-07</v>
       </c>
       <c r="F68">
-        <v>0.9696842105263158</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G68">
-        <v>1.22112552799726</v>
+        <v>1.134303940083929</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I68">
-        <v>0.9999974650769542</v>
+        <v>7.782975707558899e-07</v>
       </c>
     </row>
     <row r="69">
@@ -2427,26 +2757,31 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Biliverdin_[M+Na]+</t>
+          <t>Ethylmalonate</t>
         </is>
       </c>
       <c r="C69">
-        <v>0.1453141061096946</v>
+        <v>5.638720037525867</v>
       </c>
       <c r="D69">
-        <v>0.664</v>
+        <v>0.0255</v>
       </c>
       <c r="E69">
-        <v>0.9422334401440126</v>
+        <v>1.034966246747407e-09</v>
       </c>
       <c r="F69">
-        <v>0.9945806451612903</v>
+        <v>0.08598688524590165</v>
       </c>
       <c r="G69">
-        <v>0.1778319206319825</v>
+        <v>1.593459819566045</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I69">
-        <v>0.9999974650769542</v>
+        <v>3.815169693892403e-09</v>
       </c>
     </row>
     <row r="70">
@@ -2457,26 +2792,31 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1-Hydroxy-2-Naphthoate</t>
+          <t>Glutarate</t>
         </is>
       </c>
       <c r="C70">
-        <v>0.1419976654815738</v>
+        <v>5.618323132420683</v>
       </c>
       <c r="D70">
-        <v>0.537</v>
+        <v>0.0257</v>
       </c>
       <c r="E70">
-        <v>0.9154971126786543</v>
+        <v>1.165441516024758e-09</v>
       </c>
       <c r="F70">
-        <v>0.9945806451612903</v>
+        <v>0.08598688524590165</v>
       </c>
       <c r="G70">
-        <v>0.2700257143004444</v>
+        <v>1.590066876668705</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I70">
-        <v>0.9999974650769542</v>
+        <v>4.213519327166434e-09</v>
       </c>
     </row>
     <row r="71">
@@ -2487,26 +2827,31 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2-Hydroxyoctanoic Acid_iso1</t>
+          <t>L-Tyrosine</t>
         </is>
       </c>
       <c r="C71">
-        <v>0.1395902897079858</v>
+        <v>5.574424873388402</v>
       </c>
       <c r="D71">
-        <v>0.406</v>
+        <v>0.0774</v>
       </c>
       <c r="E71">
-        <v>0.8817673943464844</v>
+        <v>6.388074471465992e-07</v>
       </c>
       <c r="F71">
-        <v>0.9897011494252873</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G71">
-        <v>0.3914739664228059</v>
+        <v>1.111259039317107</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I71">
-        <v>0.9999974650769542</v>
+        <v>1.36472500072228e-06</v>
       </c>
     </row>
     <row r="72">
@@ -2517,26 +2862,31 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Oleic Acid</t>
+          <t>Stearoylcarnitine_[M+Na]+</t>
         </is>
       </c>
       <c r="C72">
-        <v>0.1357439948346291</v>
+        <v>5.566939141737239</v>
       </c>
       <c r="D72">
-        <v>0.796</v>
+        <v>0.0277</v>
       </c>
       <c r="E72">
-        <v>0.96950386324323</v>
+        <v>2.134910446738317e-09</v>
       </c>
       <c r="F72">
-        <v>0.9945806451612903</v>
+        <v>0.08598688524590165</v>
       </c>
       <c r="G72">
-        <v>0.09908693226233094</v>
+        <v>1.557520230935551</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I72">
-        <v>0.9999974650769542</v>
+        <v>6.920054551496612e-09</v>
       </c>
     </row>
     <row r="73">
@@ -2547,26 +2897,31 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Methyl 4-Aminobutyrate</t>
+          <t>2-Hydroxy-4-(Methylthio)Butanoate</t>
         </is>
       </c>
       <c r="C73">
-        <v>0.1311809921660436</v>
+        <v>5.563198729466134</v>
       </c>
       <c r="D73">
-        <v>0.6860000000000001</v>
+        <v>0.0268</v>
       </c>
       <c r="E73">
-        <v>0.951763038590841</v>
+        <v>1.800534649066759e-09</v>
       </c>
       <c r="F73">
-        <v>0.9945806451612903</v>
+        <v>0.08598688524590165</v>
       </c>
       <c r="G73">
-        <v>0.1636758842932483</v>
+        <v>1.571865205971211</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I73">
-        <v>0.9999974650769542</v>
+        <v>6.044652036152691e-09</v>
       </c>
     </row>
     <row r="74">
@@ -2577,26 +2932,31 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Arachidonic Acid</t>
+          <t>2-Hydroxyoctanoic Acid_iso1</t>
         </is>
       </c>
       <c r="C74">
-        <v>0.1282687997879688</v>
+        <v>5.541713515251807</v>
       </c>
       <c r="D74">
-        <v>0.6899999999999999</v>
+        <v>0.029</v>
       </c>
       <c r="E74">
-        <v>0.9535190328935709</v>
+        <v>3.013354343904002e-09</v>
       </c>
       <c r="F74">
-        <v>0.9945806451612903</v>
+        <v>0.08653968253968254</v>
       </c>
       <c r="G74">
-        <v>0.1611509092627447</v>
+        <v>1.537602002101044</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I74">
-        <v>0.9999974650769542</v>
+        <v>9.441843610899207e-09</v>
       </c>
     </row>
     <row r="75">
@@ -2607,26 +2967,31 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Cortisol</t>
+          <t>Indoleacetaldehyde_iso1</t>
         </is>
       </c>
       <c r="C75">
-        <v>0.1253535562508893</v>
+        <v>5.519690691754049</v>
       </c>
       <c r="D75">
-        <v>0.738</v>
+        <v>0.0267</v>
       </c>
       <c r="E75">
-        <v>0.9626322244182127</v>
+        <v>2.064566403245569e-09</v>
       </c>
       <c r="F75">
-        <v>0.9945806451612903</v>
+        <v>0.08598688524590165</v>
       </c>
       <c r="G75">
-        <v>0.1319436381769584</v>
+        <v>1.573488738635425</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I75">
-        <v>0.9999974650769542</v>
+        <v>6.809447084388893e-09</v>
       </c>
     </row>
     <row r="76">
@@ -2637,26 +3002,31 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Kynurenic Acid_[M+H-H2O]+</t>
+          <t>3-Indoleacrylic Acid_iso2</t>
         </is>
       </c>
       <c r="C76">
-        <v>0.1246059432138073</v>
+        <v>5.505958816853238</v>
       </c>
       <c r="D76">
-        <v>0.227</v>
+        <v>0.0725</v>
       </c>
       <c r="E76">
-        <v>0.8312984955423862</v>
+        <v>5.309675732231013e-07</v>
       </c>
       <c r="F76">
-        <v>0.9696842105263158</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G76">
-        <v>0.6439741428068773</v>
+        <v>1.139661993429006</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I76">
-        <v>0.9999974650769542</v>
+        <v>1.147378204206242e-06</v>
       </c>
     </row>
     <row r="77">
@@ -2667,26 +3037,31 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Adipate_iso1</t>
+          <t>Aspartame</t>
         </is>
       </c>
       <c r="C77">
-        <v>0.1233012324849537</v>
+        <v>5.498713708515525</v>
       </c>
       <c r="D77">
-        <v>0.6899999999999999</v>
+        <v>0.0345</v>
       </c>
       <c r="E77">
-        <v>0.9552782599696817</v>
+        <v>9.117710817418102e-09</v>
       </c>
       <c r="F77">
-        <v>0.9945806451612903</v>
+        <v>0.09978461538461539</v>
       </c>
       <c r="G77">
-        <v>0.1611509092627447</v>
+        <v>1.462180904926726</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I77">
-        <v>0.9999974650769542</v>
+        <v>2.520778873050887e-08</v>
       </c>
     </row>
     <row r="78">
@@ -2697,26 +3072,31 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Itaconate_iso2</t>
+          <t>Indole-3-Acetate_[M+Na]+</t>
         </is>
       </c>
       <c r="C78">
-        <v>0.1187811696529336</v>
+        <v>5.469833378766108</v>
       </c>
       <c r="D78">
-        <v>0.54</v>
+        <v>0.0237</v>
       </c>
       <c r="E78">
-        <v>0.9294230047624379</v>
+        <v>1.288677524344362e-09</v>
       </c>
       <c r="F78">
-        <v>0.9945806451612903</v>
+        <v>0.08598688524590165</v>
       </c>
       <c r="G78">
-        <v>0.2676062401770314</v>
+        <v>1.625251653989896</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I78">
-        <v>0.9999974650769542</v>
+        <v>4.571158010881888e-09</v>
       </c>
     </row>
     <row r="79">
@@ -2727,26 +3107,31 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Isoleucine</t>
+          <t>1-Methyladenosine</t>
         </is>
       </c>
       <c r="C79">
-        <v>0.1164477087447409</v>
+        <v>5.459530344823653</v>
       </c>
       <c r="D79">
-        <v>0.665</v>
+        <v>0.0241</v>
       </c>
       <c r="E79">
-        <v>0.95360382973903</v>
+        <v>1.467482552784755e-09</v>
       </c>
       <c r="F79">
-        <v>0.9945806451612903</v>
+        <v>0.08598688524590165</v>
       </c>
       <c r="G79">
-        <v>0.1771783546968954</v>
+        <v>1.617982957425132</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I79">
-        <v>0.9999974650769542</v>
+        <v>5.01612218042789e-09</v>
       </c>
     </row>
     <row r="80">
@@ -2757,26 +3142,31 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Homovanillate_iso2</t>
+          <t>Adipate_iso1</t>
         </is>
       </c>
       <c r="C80">
-        <v>0.1075181637855808</v>
+        <v>5.448940648868904</v>
       </c>
       <c r="D80">
-        <v>0.847</v>
+        <v>0.0237</v>
       </c>
       <c r="E80">
-        <v>0.9823045522892976</v>
+        <v>1.393478261176929e-09</v>
       </c>
       <c r="F80">
-        <v>0.9945806451612903</v>
+        <v>0.08598688524590165</v>
       </c>
       <c r="G80">
-        <v>0.0721165896692931</v>
+        <v>1.625251653989896</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I80">
-        <v>0.9999974650769542</v>
+        <v>4.851368761134494e-09</v>
       </c>
     </row>
     <row r="81">
@@ -2787,26 +3177,31 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Aspartame</t>
+          <t>Myristic Acid_iso2</t>
         </is>
       </c>
       <c r="C81">
-        <v>0.1033110568391164</v>
+        <v>5.44276952978395</v>
       </c>
       <c r="D81">
-        <v>0.629</v>
+        <v>0.07630000000000001</v>
       </c>
       <c r="E81">
-        <v>0.9532315000054438</v>
+        <v>8.276345360820384e-07</v>
       </c>
       <c r="F81">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G81">
-        <v>0.2013493545547311</v>
+        <v>1.117475462045119</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I81">
-        <v>0.9999974650769542</v>
+        <v>1.698249334755615e-06</v>
       </c>
     </row>
     <row r="82">
@@ -2817,26 +3212,31 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Deoxycholate</t>
+          <t>Dihomo-?-Linolenic Acid (20:3 N6)</t>
         </is>
       </c>
       <c r="C82">
-        <v>0.103166987983055</v>
+        <v>5.438841773279419</v>
       </c>
       <c r="D82">
-        <v>0.63</v>
+        <v>0.07580000000000001</v>
       </c>
       <c r="E82">
-        <v>0.9534514177750618</v>
+        <v>8.066740303241614e-07</v>
       </c>
       <c r="F82">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G82">
-        <v>0.2006594505464183</v>
+        <v>1.120330794367946</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I82">
-        <v>0.9999974650769542</v>
+        <v>1.685052418899359e-06</v>
       </c>
     </row>
     <row r="83">
@@ -2847,26 +3247,31 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Hydroxyphenyllactate</t>
+          <t>Biliverdin_iso1</t>
         </is>
       </c>
       <c r="C83">
-        <v>0.1011756715961893</v>
+        <v>5.434583237193674</v>
       </c>
       <c r="D83">
-        <v>0.694</v>
+        <v>0.0339</v>
       </c>
       <c r="E83">
-        <v>0.9637168177287058</v>
+        <v>1.028603310721183e-08</v>
       </c>
       <c r="F83">
-        <v>0.9945806451612903</v>
+        <v>0.09958125</v>
       </c>
       <c r="G83">
-        <v>0.1586405295451451</v>
+        <v>1.469800301796918</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I83">
-        <v>0.9999974650769542</v>
+        <v>2.762534605936891e-08</v>
       </c>
     </row>
     <row r="84">
@@ -2877,26 +3282,31 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Biliverdin_iso2</t>
+          <t>Leucine</t>
         </is>
       </c>
       <c r="C84">
-        <v>0.1009779928314854</v>
+        <v>5.423503123125117</v>
       </c>
       <c r="D84">
-        <v>0.781</v>
+        <v>0.07290000000000001</v>
       </c>
       <c r="E84">
-        <v>0.9753491658152623</v>
+        <v>6.792023783328926e-07</v>
       </c>
       <c r="F84">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G84">
-        <v>0.1073489661226997</v>
+        <v>1.137272471682025</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I84">
-        <v>0.9999974650769542</v>
+        <v>1.434719630635773e-06</v>
       </c>
     </row>
     <row r="85">
@@ -2907,26 +3317,31 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Palmitate</t>
+          <t>Tauro-?-Muricholic Acid</t>
         </is>
       </c>
       <c r="C85">
-        <v>0.09904935787366086</v>
+        <v>5.385569817985219</v>
       </c>
       <c r="D85">
-        <v>0.865</v>
+        <v>0.0743</v>
       </c>
       <c r="E85">
-        <v>0.9857379705991457</v>
+        <v>8.310581850931734e-07</v>
       </c>
       <c r="F85">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G85">
-        <v>0.06298389253518578</v>
+        <v>1.129011186239425</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I85">
-        <v>0.9999974650769542</v>
+        <v>1.698249334755615e-06</v>
       </c>
     </row>
     <row r="86">
@@ -2937,26 +3352,31 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Phenylalanine</t>
+          <t>O-Acetylcarnitine</t>
         </is>
       </c>
       <c r="C86">
-        <v>0.09496712938411517</v>
+        <v>5.380223546919863</v>
       </c>
       <c r="D86">
-        <v>0.627</v>
+        <v>0.0766</v>
       </c>
       <c r="E86">
-        <v>0.9566367933453174</v>
+        <v>9.928904954870382e-07</v>
       </c>
       <c r="F86">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G86">
-        <v>0.2027324591692836</v>
+        <v>1.115771230367396</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I86">
-        <v>0.9999974650769542</v>
+        <v>2.007133474747991e-06</v>
       </c>
     </row>
     <row r="87">
@@ -2967,26 +3387,31 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Oxoglutarate</t>
+          <t>Proline</t>
         </is>
       </c>
       <c r="C87">
-        <v>0.09423945425629991</v>
+        <v>5.346255083416086</v>
       </c>
       <c r="D87">
-        <v>0.6899999999999999</v>
+        <v>0.0246</v>
       </c>
       <c r="E87">
-        <v>0.9656355061222572</v>
+        <v>2.497633074353794e-09</v>
       </c>
       <c r="F87">
-        <v>0.9945806451612903</v>
+        <v>0.08598688524590165</v>
       </c>
       <c r="G87">
-        <v>0.1611509092627447</v>
+        <v>1.609064892896621</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I87">
-        <v>0.9999974650769542</v>
+        <v>7.958559626754461e-09</v>
       </c>
     </row>
     <row r="88">
@@ -2997,26 +3422,31 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2-Hydroxyphenylacetate_iso3</t>
+          <t>N-Acetylneuraminate_iso1</t>
         </is>
       </c>
       <c r="C88">
-        <v>0.08934015141357889</v>
+        <v>5.304819961286584</v>
       </c>
       <c r="D88">
-        <v>0.842</v>
+        <v>0.0268</v>
       </c>
       <c r="E88">
-        <v>0.9847531324355256</v>
+        <v>4.587098636861913e-09</v>
       </c>
       <c r="F88">
-        <v>0.9945806451612903</v>
+        <v>0.08598688524590165</v>
       </c>
       <c r="G88">
-        <v>0.07468790850035051</v>
+        <v>1.571865205971211</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I88">
-        <v>0.9999974650769542</v>
+        <v>1.326730067276984e-08</v>
       </c>
     </row>
     <row r="89">
@@ -3027,26 +3457,31 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Idp (Inosine 5'-Diphosphate)</t>
+          <t>3-Me-Glutarylcarnitine</t>
         </is>
       </c>
       <c r="C89">
-        <v>0.08672248172653013</v>
+        <v>5.270310016031752</v>
       </c>
       <c r="D89">
-        <v>0.293</v>
+        <v>0.00752</v>
       </c>
       <c r="E89">
-        <v>0.8990118928118166</v>
+        <v>6.412237703476944e-12</v>
       </c>
       <c r="F89">
-        <v>0.9696842105263158</v>
+        <v>0.06732190476190476</v>
       </c>
       <c r="G89">
-        <v>0.5331323796458906</v>
+        <v>2.123782159408358</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I89">
-        <v>0.9999974650769542</v>
+        <v>4.15689892501264e-11</v>
       </c>
     </row>
     <row r="90">
@@ -3057,26 +3492,31 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>D-?-Hydroxyisovaleric Acid_iso1</t>
+          <t>Histidine</t>
         </is>
       </c>
       <c r="C90">
-        <v>0.08514851719274068</v>
+        <v>5.241083387204233</v>
       </c>
       <c r="D90">
-        <v>0.696</v>
+        <v>0.0248</v>
       </c>
       <c r="E90">
-        <v>0.9696129564799277</v>
+        <v>3.84757750564493e-09</v>
       </c>
       <c r="F90">
-        <v>0.9945806451612903</v>
+        <v>0.08598688524590165</v>
       </c>
       <c r="G90">
-        <v>0.1573907603894379</v>
+        <v>1.605548319173784</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I90">
-        <v>0.9999974650769542</v>
+        <v>1.166684792034269e-08</v>
       </c>
     </row>
     <row r="91">
@@ -3087,26 +3527,31 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Norleucine</t>
+          <t>Heptadec-10-Enoic Acid</t>
         </is>
       </c>
       <c r="C91">
-        <v>0.08378704976424867</v>
+        <v>5.19804481795679</v>
       </c>
       <c r="D91">
-        <v>0.788</v>
+        <v>0.0764</v>
       </c>
       <c r="E91">
-        <v>0.9802350717372794</v>
+        <v>1.564116942781302e-06</v>
       </c>
       <c r="F91">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G91">
-        <v>0.1034737825104447</v>
+        <v>1.11690664142431</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I91">
-        <v>0.9999974650769542</v>
+        <v>3.06306234628005e-06</v>
       </c>
     </row>
     <row r="92">
@@ -3117,26 +3562,31 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Aniline</t>
+          <t>D-?-Hydroxyisovaleric Acid_iso1</t>
         </is>
       </c>
       <c r="C92">
-        <v>0.08349415928002052</v>
+        <v>5.181771907256573</v>
       </c>
       <c r="D92">
-        <v>0.611</v>
+        <v>0.0745</v>
       </c>
       <c r="E92">
-        <v>0.9597004329530773</v>
+        <v>1.431433109463418e-06</v>
       </c>
       <c r="F92">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G92">
-        <v>0.2139587897574458</v>
+        <v>1.127843727251707</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I92">
-        <v>0.9999974650769542</v>
+        <v>2.832730785043395e-06</v>
       </c>
     </row>
     <row r="93">
@@ -3147,26 +3597,31 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Nervonate</t>
+          <t>Deoxycholate</t>
         </is>
       </c>
       <c r="C93">
-        <v>0.08285080471103431</v>
+        <v>5.171405792788907</v>
       </c>
       <c r="D93">
-        <v>0.795</v>
+        <v>0.0726</v>
       </c>
       <c r="E93">
-        <v>0.9811724299644297</v>
+        <v>1.286592578560006e-06</v>
       </c>
       <c r="F93">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G93">
-        <v>0.09963287134352969</v>
+        <v>1.139063379299906</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I93">
-        <v>0.9999974650769542</v>
+        <v>2.573185157120012e-06</v>
       </c>
     </row>
     <row r="94">
@@ -3177,26 +3632,31 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Citrate_iso1</t>
+          <t>2-Methylbutyrylcarnitine</t>
         </is>
       </c>
       <c r="C94">
-        <v>0.08201659851701606</v>
+        <v>5.13844627366946</v>
       </c>
       <c r="D94">
-        <v>0.8179999999999999</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="E94">
-        <v>0.9836584402055222</v>
+        <v>1.590882686829805e-06</v>
       </c>
       <c r="F94">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G94">
-        <v>0.08724669632867703</v>
+        <v>1.128427064454121</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I94">
-        <v>0.9999974650769542</v>
+        <v>3.083360259010343e-06</v>
       </c>
     </row>
     <row r="95">
@@ -3207,26 +3667,31 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2,3-Dihydroxybenzoate</t>
+          <t>L-Carnitine</t>
         </is>
       </c>
       <c r="C95">
-        <v>0.07608649953706151</v>
+        <v>5.131425684633938</v>
       </c>
       <c r="D95">
-        <v>0.9</v>
+        <v>0.0785</v>
       </c>
       <c r="E95">
-        <v>0.9920155337220889</v>
+        <v>2.133564476227006e-06</v>
       </c>
       <c r="F95">
-        <v>0.9945806451612903</v>
+        <v>0.1097362962962963</v>
       </c>
       <c r="G95">
-        <v>0.04575749056067512</v>
+        <v>1.105130343254747</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I95">
-        <v>0.9999974650769542</v>
+        <v>3.971387341887892e-06</v>
       </c>
     </row>
     <row r="96">
@@ -3237,26 +3702,31 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Indole-3-Acetamide_[M+Na]+</t>
+          <t>Xanthine</t>
         </is>
       </c>
       <c r="C96">
-        <v>0.07535826462358444</v>
+        <v>5.056316777657418</v>
       </c>
       <c r="D96">
-        <v>0.6860000000000001</v>
+        <v>0.074</v>
       </c>
       <c r="E96">
-        <v>0.9719986671435951</v>
+        <v>1.91636121584149e-06</v>
       </c>
       <c r="F96">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G96">
-        <v>0.1636758842932483</v>
+        <v>1.130768280269024</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I96">
-        <v>0.9999974650769542</v>
+        <v>3.63915059169899e-06</v>
       </c>
     </row>
     <row r="97">
@@ -3267,26 +3737,31 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Adipate_iso2</t>
+          <t>Glutamine_iso2</t>
         </is>
       </c>
       <c r="C97">
-        <v>0.07393142135641519</v>
+        <v>5.049565599554017</v>
       </c>
       <c r="D97">
-        <v>0.889</v>
+        <v>0.0751</v>
       </c>
       <c r="E97">
-        <v>0.9913390972025127</v>
+        <v>2.10121312244018e-06</v>
       </c>
       <c r="F97">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G97">
-        <v>0.0510982390297863</v>
+        <v>1.124360062995832</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I97">
-        <v>0.9999974650769542</v>
+        <v>3.950280670187539e-06</v>
       </c>
     </row>
     <row r="98">
@@ -3297,26 +3772,31 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Cysteine</t>
+          <t>5-Aminolevulinate</t>
         </is>
       </c>
       <c r="C98">
-        <v>0.0732734177847071</v>
+        <v>5.049402083176467</v>
       </c>
       <c r="D98">
-        <v>0.639</v>
+        <v>0.07240000000000001</v>
       </c>
       <c r="E98">
-        <v>0.9677170283010245</v>
+        <v>1.747276117325038e-06</v>
       </c>
       <c r="F98">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G98">
-        <v>0.1944991418415998</v>
+        <v>1.140261433802853</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I98">
-        <v>0.9999974650769542</v>
+        <v>3.351917449562317e-06</v>
       </c>
     </row>
     <row r="99">
@@ -3327,26 +3807,31 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Ketoleucine</t>
+          <t>3-Indoleacrylic Acid_iso1</t>
         </is>
       </c>
       <c r="C99">
-        <v>0.06420970892929186</v>
+        <v>5.046377555734847</v>
       </c>
       <c r="D99">
-        <v>0.717</v>
+        <v>0.0247</v>
       </c>
       <c r="E99">
-        <v>0.9788652856983149</v>
+        <v>7.743583391284118e-09</v>
       </c>
       <c r="F99">
-        <v>0.9945806451612903</v>
+        <v>0.08598688524590165</v>
       </c>
       <c r="G99">
-        <v>0.1444808443321999</v>
+        <v>1.607303046740334</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I99">
-        <v>0.9999974650769542</v>
+        <v>2.172826384420021e-08</v>
       </c>
     </row>
     <row r="100">
@@ -3357,26 +3842,31 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Trans-Aconitate</t>
+          <t>O-Octanoylcarnitine</t>
         </is>
       </c>
       <c r="C100">
-        <v>0.05936117297584641</v>
+        <v>5.032689426707378</v>
       </c>
       <c r="D100">
-        <v>0.75</v>
+        <v>0.0854</v>
       </c>
       <c r="E100">
-        <v>0.9830678426804244</v>
+        <v>4.19140207273994e-06</v>
       </c>
       <c r="F100">
-        <v>0.9945806451612903</v>
+        <v>0.1171912408759124</v>
       </c>
       <c r="G100">
-        <v>0.1249387366082999</v>
+        <v>1.068542129310995</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I100">
-        <v>0.9999974650769542</v>
+        <v>7.504605615953417e-06</v>
       </c>
     </row>
     <row r="101">
@@ -3387,26 +3877,31 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Glutamine_iso1</t>
+          <t>Adipate_iso2</t>
         </is>
       </c>
       <c r="C101">
-        <v>0.0579674386404737</v>
+        <v>4.940216414022692</v>
       </c>
       <c r="D101">
-        <v>0.748</v>
+        <v>0.0727</v>
       </c>
       <c r="E101">
-        <v>0.9833098704181301</v>
+        <v>2.375382812459923e-06</v>
       </c>
       <c r="F101">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G101">
-        <v>0.1260984021355386</v>
+        <v>1.138465589140962</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I101">
-        <v>0.9999974650769542</v>
+        <v>4.378156556298682e-06</v>
       </c>
     </row>
     <row r="102">
@@ -3417,26 +3912,31 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2-Hydroxybutyrate_iso2</t>
+          <t>Itaconate_iso1</t>
         </is>
       </c>
       <c r="C102">
-        <v>0.05555417834622011</v>
+        <v>4.878481540709219</v>
       </c>
       <c r="D102">
-        <v>0.791</v>
+        <v>0.0743</v>
       </c>
       <c r="E102">
-        <v>0.9870593760213037</v>
+        <v>3.105558887072285e-06</v>
       </c>
       <c r="F102">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G102">
-        <v>0.1018235165023234</v>
+        <v>1.129011186239425</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I102">
-        <v>0.9999974650769542</v>
+        <v>5.668398745335821e-06</v>
       </c>
     </row>
     <row r="103">
@@ -3447,26 +3947,31 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>3-Hydroxyphenylacetate</t>
+          <t>Isobutyrylcarnitine</t>
         </is>
       </c>
       <c r="C103">
-        <v>0.05395497638960752</v>
+        <v>4.819888831393008</v>
       </c>
       <c r="D103">
-        <v>0.828</v>
+        <v>0.0873</v>
       </c>
       <c r="E103">
-        <v>0.9898681001748099</v>
+        <v>7.866949831557879e-06</v>
       </c>
       <c r="F103">
-        <v>0.9945806451612903</v>
+        <v>0.1189304347826087</v>
       </c>
       <c r="G103">
-        <v>0.08196966321511988</v>
+        <v>1.05898575629443</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I103">
-        <v>0.9999974650769542</v>
+        <v>1.286075276811201e-05</v>
       </c>
     </row>
     <row r="104">
@@ -3477,26 +3982,31 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Cortisone</t>
+          <t>Thyroxine</t>
         </is>
       </c>
       <c r="C104">
-        <v>0.04906380816567342</v>
+        <v>4.756641979122997</v>
       </c>
       <c r="D104">
-        <v>0.832</v>
+        <v>0.0723</v>
       </c>
       <c r="E104">
-        <v>0.9910166388347861</v>
+        <v>3.743943899805973e-06</v>
       </c>
       <c r="F104">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G104">
-        <v>0.07987667370927608</v>
+        <v>1.140861702705469</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I104">
-        <v>0.9999974650769542</v>
+        <v>6.767898588110798e-06</v>
       </c>
     </row>
     <row r="105">
@@ -3507,26 +4017,31 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>L-Tyrosine</t>
+          <t>Kynurenic Acid_[M+H-H2O]+</t>
         </is>
       </c>
       <c r="C105">
-        <v>0.0421842307586399</v>
+        <v>4.749172179025799</v>
       </c>
       <c r="D105">
-        <v>0.829</v>
+        <v>0.00729</v>
       </c>
       <c r="E105">
-        <v>0.9921201848633547</v>
+        <v>7.074977099971446e-11</v>
       </c>
       <c r="F105">
-        <v>0.9945806451612903</v>
+        <v>0.06732190476190476</v>
       </c>
       <c r="G105">
-        <v>0.08144546944972647</v>
+        <v>2.137272471682025</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I105">
-        <v>0.9999974650769542</v>
+        <v>3.410501781524697e-10</v>
       </c>
     </row>
     <row r="106">
@@ -3537,26 +4052,31 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Urate_iso2</t>
+          <t>Urate_iso1</t>
         </is>
       </c>
       <c r="C106">
-        <v>0.04000135145341973</v>
+        <v>4.74328732725264</v>
       </c>
       <c r="D106">
-        <v>0.728</v>
+        <v>0.171</v>
       </c>
       <c r="E106">
-        <v>0.9873816887393864</v>
+        <v>0.0002300806896494755</v>
       </c>
       <c r="F106">
-        <v>0.9945806451612903</v>
+        <v>0.1826892655367232</v>
       </c>
       <c r="G106">
-        <v>0.1378686206869628</v>
+        <v>0.7670038896078462</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I106">
-        <v>0.9999974650769542</v>
+        <v>0.0003134432583630536</v>
       </c>
     </row>
     <row r="107">
@@ -3567,26 +4087,31 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>5?-Dihydroprogesterone/5A-Pregnane-3,20-Dione_[M+Na]+_iso1</t>
+          <t>Homovanillate_iso2</t>
         </is>
       </c>
       <c r="C107">
-        <v>0.03800256154165167</v>
+        <v>4.742654697467182</v>
       </c>
       <c r="D107">
-        <v>0.661</v>
+        <v>0.07489999999999999</v>
       </c>
       <c r="E107">
-        <v>0.9843900037604804</v>
+        <v>4.592571280377154e-06</v>
       </c>
       <c r="F107">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G107">
-        <v>0.1797985405143598</v>
+        <v>1.125518182300534</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I107">
-        <v>0.9999974650769542</v>
+        <v>8.145315101046273e-06</v>
       </c>
     </row>
     <row r="108">
@@ -3597,26 +4122,31 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>_12,13-Dihydroxy-Octadecenoic Acid</t>
+          <t>Dehydroepiandrosterone 3-Sulfate (Dheas)_iso2</t>
         </is>
       </c>
       <c r="C108">
-        <v>0.0340133328091342</v>
+        <v>4.69465442985716</v>
       </c>
       <c r="D108">
-        <v>0.78</v>
+        <v>0.07480000000000001</v>
       </c>
       <c r="E108">
-        <v>0.9915846104051926</v>
+        <v>5.16841225949013e-06</v>
       </c>
       <c r="F108">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G108">
-        <v>0.1079053973095196</v>
+        <v>1.126098402135539</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I108">
-        <v>0.9999974650769542</v>
+        <v>9.08094864284247e-06</v>
       </c>
     </row>
     <row r="109">
@@ -3627,26 +4157,31 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Hexanoylcarnitine</t>
+          <t>2-Hydroxyphenylacetate_iso3</t>
         </is>
       </c>
       <c r="C109">
-        <v>0.03049013175293061</v>
+        <v>4.64477859069892</v>
       </c>
       <c r="D109">
-        <v>0.914</v>
+        <v>0.0755</v>
       </c>
       <c r="E109">
-        <v>0.997261939164672</v>
+        <v>6.142031271809413e-06</v>
       </c>
       <c r="F109">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G109">
-        <v>0.03905380426616856</v>
+        <v>1.122053048370812</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I109">
-        <v>0.9999974650769542</v>
+        <v>1.049728981000154e-05</v>
       </c>
     </row>
     <row r="110">
@@ -3657,26 +4192,31 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>L-Arginine</t>
+          <t>Isoleucine</t>
         </is>
       </c>
       <c r="C110">
-        <v>0.02746906370629762</v>
+        <v>4.624080124457755</v>
       </c>
       <c r="D110">
-        <v>0.893</v>
+        <v>0.0721</v>
       </c>
       <c r="E110">
-        <v>0.9968961886349376</v>
+        <v>5.236018311993615e-06</v>
       </c>
       <c r="F110">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G110">
-        <v>0.04914854111145357</v>
+        <v>1.142064735280571</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I110">
-        <v>0.9999974650769542</v>
+        <v>9.114550394951848e-06</v>
       </c>
     </row>
     <row r="111">
@@ -3687,26 +4227,31 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>L-Carnitine</t>
+          <t>Glycocholate</t>
         </is>
       </c>
       <c r="C111">
-        <v>0.02382004929463893</v>
+        <v>4.614966370387568</v>
       </c>
       <c r="D111">
-        <v>0.905</v>
+        <v>0.0732</v>
       </c>
       <c r="E111">
-        <v>0.9976250992426769</v>
+        <v>5.751178209738438e-06</v>
       </c>
       <c r="F111">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G111">
-        <v>0.04335142079479667</v>
+        <v>1.135488918941608</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I111">
-        <v>0.9999974650769542</v>
+        <v>9.919463334227764e-06</v>
       </c>
     </row>
     <row r="112">
@@ -3717,26 +4262,31 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Gluconate</t>
+          <t>_12,13-Dihydroxy-Octadecenoic Acid</t>
         </is>
       </c>
       <c r="C112">
-        <v>0.02222059635251476</v>
+        <v>4.598048183767364</v>
       </c>
       <c r="D112">
-        <v>0.876</v>
+        <v>0.0762</v>
       </c>
       <c r="E112">
-        <v>0.9970625560467981</v>
+        <v>7.23061248286781e-06</v>
       </c>
       <c r="F112">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G112">
-        <v>0.05749589383191927</v>
+        <v>1.1180450286604</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I112">
-        <v>0.9999974650769542</v>
+        <v>1.192416795420306e-05</v>
       </c>
     </row>
     <row r="113">
@@ -3747,26 +4297,31 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Stearoylcarnitine_[M+Na]+</t>
+          <t>Creatinine</t>
         </is>
       </c>
       <c r="C113">
-        <v>0.02216060235163621</v>
+        <v>4.575333739536912</v>
       </c>
       <c r="D113">
-        <v>0.872</v>
+        <v>0.074</v>
       </c>
       <c r="E113">
-        <v>0.9969693558517142</v>
+        <v>6.704366319875787e-06</v>
       </c>
       <c r="F113">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G113">
-        <v>0.05948351506743278</v>
+        <v>1.130768280269024</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I113">
-        <v>0.9999974650769542</v>
+        <v>1.125375775122007e-05</v>
       </c>
     </row>
     <row r="114">
@@ -3777,26 +4332,31 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Pregnenolone Sulfate</t>
+          <t>1-Hydroxy-2-Naphthoate</t>
         </is>
       </c>
       <c r="C114">
-        <v>0.02086465716920855</v>
+        <v>4.548417929483092</v>
       </c>
       <c r="D114">
-        <v>0.964</v>
+        <v>0.0727</v>
       </c>
       <c r="E114">
-        <v>0.9992353110593535</v>
+        <v>6.634110519116851e-06</v>
       </c>
       <c r="F114">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G114">
-        <v>0.01592296609716924</v>
+        <v>1.138465589140962</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I114">
-        <v>0.9999974650769542</v>
+        <v>1.123615114949521e-05</v>
       </c>
     </row>
     <row r="115">
@@ -3807,26 +4367,31 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Thyroxine</t>
+          <t>Dehydroepiandrosterone 3-Sulfate (Dheas)_iso1</t>
         </is>
       </c>
       <c r="C115">
-        <v>0.01593726084785587</v>
+        <v>4.544235118407008</v>
       </c>
       <c r="D115">
-        <v>0.903</v>
+        <v>0.0759</v>
       </c>
       <c r="E115">
-        <v>0.9983751992579332</v>
+        <v>8.157467531924235e-06</v>
       </c>
       <c r="F115">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G115">
-        <v>0.04431224968649419</v>
+        <v>1.11975822410452</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I115">
-        <v>0.9999974650769542</v>
+        <v>1.322072324139445e-05</v>
       </c>
     </row>
     <row r="116">
@@ -3837,26 +4402,31 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>6-Carboxyhexanoate</t>
+          <t>Sebacate</t>
         </is>
       </c>
       <c r="C116">
-        <v>0.01298868489399416</v>
+        <v>4.53503976622666</v>
       </c>
       <c r="D116">
-        <v>0.9399999999999999</v>
+        <v>0.0725</v>
       </c>
       <c r="E116">
-        <v>0.9991966427427871</v>
+        <v>6.785588822714912e-06</v>
       </c>
       <c r="F116">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G116">
-        <v>0.02687214640030136</v>
+        <v>1.139661993429006</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I116">
-        <v>0.9999974650769542</v>
+        <v>1.128929821832216e-05</v>
       </c>
     </row>
     <row r="117">
@@ -3867,26 +4437,31 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>5-Aminolevulinate</t>
+          <t>5-Hydroxytryptophan</t>
         </is>
       </c>
       <c r="C117">
-        <v>0.008045913014263139</v>
+        <v>4.496155789734041</v>
       </c>
       <c r="D117">
-        <v>0.972</v>
+        <v>0.0287</v>
       </c>
       <c r="E117">
-        <v>0.9997715264024162</v>
+        <v>1.165190034387338e-07</v>
       </c>
       <c r="F117">
-        <v>0.9945806451612903</v>
+        <v>0.08653968253968254</v>
       </c>
       <c r="G117">
-        <v>0.01233373507372543</v>
+        <v>1.542118103266008</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I117">
-        <v>0.9999974650769542</v>
+        <v>2.808406749548969e-07</v>
       </c>
     </row>
     <row r="118">
@@ -3897,26 +4472,31 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Sphinganine</t>
+          <t>Caffeate_iso2</t>
         </is>
       </c>
       <c r="C118">
-        <v>0.008011837431698806</v>
+        <v>4.481161714294911</v>
       </c>
       <c r="D118">
-        <v>0.963</v>
+        <v>0.07480000000000001</v>
       </c>
       <c r="E118">
-        <v>0.9996979843851507</v>
+        <v>8.990233130953732e-06</v>
       </c>
       <c r="F118">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G118">
-        <v>0.0163737128754655</v>
+        <v>1.126098402135539</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I118">
-        <v>0.9999974650769542</v>
+        <v>1.432342227643476e-05</v>
       </c>
     </row>
     <row r="119">
@@ -3927,26 +4507,31 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Indole-3-Carboxaldehyde_iso1</t>
+          <t>Succinate_iso2</t>
         </is>
       </c>
       <c r="C119">
-        <v>0.004292763257542809</v>
+        <v>4.43596209846381</v>
       </c>
       <c r="D119">
-        <v>0.984</v>
+        <v>0.0751</v>
       </c>
       <c r="E119">
-        <v>0.9999307627788917</v>
+        <v>1.028919446715766e-05</v>
       </c>
       <c r="F119">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G119">
-        <v>0.007004901568658489</v>
+        <v>1.124360062995832</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I119">
-        <v>0.9999974650769542</v>
+        <v>1.611973799854699e-05</v>
       </c>
     </row>
     <row r="120">
@@ -3957,26 +4542,31 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Citrulline</t>
+          <t>3-Methylglutaconate</t>
         </is>
       </c>
       <c r="C120">
-        <v>0.003803589110065812</v>
+        <v>4.417634794574258</v>
       </c>
       <c r="D120">
-        <v>0.981</v>
+        <v>0.0712</v>
       </c>
       <c r="E120">
-        <v>0.999927039098742</v>
+        <v>8.524633028889172e-06</v>
       </c>
       <c r="F120">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G120">
-        <v>0.008330992620051497</v>
+        <v>1.147520006363144</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I120">
-        <v>0.9999974650769542</v>
+        <v>1.36977009353091e-05</v>
       </c>
     </row>
     <row r="121">
@@ -3987,26 +4577,31 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>4-Quinolinecarboxylate</t>
+          <t>Gluconate</t>
         </is>
       </c>
       <c r="C121">
-        <v>0.0007837818418690475</v>
+        <v>4.392641190516498</v>
       </c>
       <c r="D121">
-        <v>0.996</v>
+        <v>0.0726</v>
       </c>
       <c r="E121">
-        <v>0.9999968585905409</v>
+        <v>9.919808345019372e-06</v>
       </c>
       <c r="F121">
-        <v>0.997</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G121">
-        <v>0.00174066157630127</v>
+        <v>1.139063379299906</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I121">
-        <v>0.9999974650769542</v>
+        <v>1.567162999045077e-05</v>
       </c>
     </row>
     <row r="122">
@@ -4017,26 +4612,31 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Glutamine_iso2</t>
+          <t>Tauroursodeoxycholic Acid_iso2</t>
         </is>
       </c>
       <c r="C122">
-        <v>-0.00084370732178779</v>
+        <v>4.270978570155049</v>
       </c>
       <c r="D122">
-        <v>0.997</v>
+        <v>0.171</v>
       </c>
       <c r="E122">
-        <v>0.9999974650769542</v>
+        <v>0.0005298376603109293</v>
       </c>
       <c r="F122">
-        <v>0.997</v>
+        <v>0.1826892655367232</v>
       </c>
       <c r="G122">
-        <v>0.001304841688344281</v>
+        <v>0.7670038896078462</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I122">
-        <v>0.9999974650769542</v>
+        <v>0.0007114962867032479</v>
       </c>
     </row>
     <row r="123">
@@ -4047,26 +4647,31 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Urate_iso1</t>
+          <t>Idp (Inosine 5'-Diphosphate)</t>
         </is>
       </c>
       <c r="C123">
-        <v>-0.009246579616756583</v>
+        <v>4.242224065509611</v>
       </c>
       <c r="D123">
-        <v>0.956</v>
+        <v>0.0279</v>
       </c>
       <c r="E123">
-        <v>0.9995840148192146</v>
+        <v>2.54627170354119e-07</v>
       </c>
       <c r="F123">
-        <v>0.9945806451612903</v>
+        <v>0.08598688524590165</v>
       </c>
       <c r="G123">
-        <v>0.01954210772389994</v>
+        <v>1.554395796726402</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I123">
-        <v>0.9999974650769542</v>
+        <v>5.837793661777362e-07</v>
       </c>
     </row>
     <row r="124">
@@ -4077,26 +4682,31 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Dihomo-?-Linolenic Acid (20:3 N6)</t>
+          <t>Eicosapentaenoic Acid</t>
         </is>
       </c>
       <c r="C124">
-        <v>-0.0092827083325087</v>
+        <v>4.237210007394215</v>
       </c>
       <c r="D124">
-        <v>0.978</v>
+        <v>0.169</v>
       </c>
       <c r="E124">
-        <v>0.9997935218200171</v>
+        <v>0.0005350493218506147</v>
       </c>
       <c r="F124">
-        <v>0.9945806451612903</v>
+        <v>0.1826892655367232</v>
       </c>
       <c r="G124">
-        <v>0.009661145212398569</v>
+        <v>0.7721132953863264</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I124">
-        <v>0.9999974650769542</v>
+        <v>0.0007133990958008197</v>
       </c>
     </row>
     <row r="125">
@@ -4107,26 +4717,31 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Citrate_iso2</t>
+          <t>Cortisol</t>
         </is>
       </c>
       <c r="C125">
-        <v>-0.009627510082776267</v>
+        <v>4.221126766443965</v>
       </c>
       <c r="D125">
-        <v>0.969</v>
+        <v>0.102</v>
       </c>
       <c r="E125">
-        <v>0.9996968692384807</v>
+        <v>6.533947622784726e-05</v>
       </c>
       <c r="F125">
-        <v>0.9945806451612903</v>
+        <v>0.1369714285714285</v>
       </c>
       <c r="G125">
-        <v>0.01367622294923469</v>
+        <v>0.9913998282380825</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I125">
-        <v>0.9999974650769542</v>
+        <v>9.099127059877988e-05</v>
       </c>
     </row>
     <row r="126">
@@ -4137,26 +4752,31 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>3-Hydroxyglutaric Acid_iso1</t>
+          <t>D-?-Hydroxyisovaleric Acid_iso2</t>
         </is>
       </c>
       <c r="C126">
-        <v>-0.01032148933885352</v>
+        <v>4.208888276720386</v>
       </c>
       <c r="D126">
-        <v>0.975</v>
+        <v>0.173</v>
       </c>
       <c r="E126">
-        <v>0.9997387166552472</v>
+        <v>0.0006208993083398627</v>
       </c>
       <c r="F126">
-        <v>0.9945806451612903</v>
+        <v>0.1827191011235955</v>
       </c>
       <c r="G126">
-        <v>0.01099538430146319</v>
+        <v>0.7619538968712046</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I126">
-        <v>0.9999974650769542</v>
+        <v>0.0008106185414437097</v>
       </c>
     </row>
     <row r="127">
@@ -4167,26 +4787,31 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Oxoproline</t>
+          <t>Taurohyodeoxycholic Acid</t>
         </is>
       </c>
       <c r="C127">
-        <v>-0.01040807004967285</v>
+        <v>4.200331723098436</v>
       </c>
       <c r="D127">
-        <v>0.944</v>
+        <v>0.172</v>
       </c>
       <c r="E127">
-        <v>0.9994003720054602</v>
+        <v>0.0006151285495904727</v>
       </c>
       <c r="F127">
-        <v>0.9945806451612903</v>
+        <v>0.1826892655367232</v>
       </c>
       <c r="G127">
-        <v>0.02502800570193105</v>
+        <v>0.7644715530924511</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I127">
-        <v>0.9999974650769542</v>
+        <v>0.0008087004707902718</v>
       </c>
     </row>
     <row r="128">
@@ -4197,26 +4822,31 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Indole-3-Carboxaldehyde_iso2</t>
+          <t>Cortisone</t>
         </is>
       </c>
       <c r="C128">
-        <v>-0.01094648157445512</v>
+        <v>4.199960954283798</v>
       </c>
       <c r="D128">
-        <v>0.9370000000000001</v>
+        <v>0.0712</v>
       </c>
       <c r="E128">
-        <v>0.999287944218757</v>
+        <v>1.515167963224219e-05</v>
       </c>
       <c r="F128">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G128">
-        <v>0.02826040911222171</v>
+        <v>1.147520006363144</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I128">
-        <v>0.9999974650769542</v>
+        <v>2.354145265174819e-05</v>
       </c>
     </row>
     <row r="129">
@@ -4227,26 +4857,31 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>O-Acetylcarnitine</t>
+          <t>Biliverdin_[M+Na]+</t>
         </is>
       </c>
       <c r="C129">
-        <v>-0.01695078518507903</v>
+        <v>4.140693163616167</v>
       </c>
       <c r="D129">
-        <v>0.955</v>
+        <v>0.0764</v>
       </c>
       <c r="E129">
-        <v>0.9992198235853906</v>
+        <v>2.372642500076151e-05</v>
       </c>
       <c r="F129">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G129">
-        <v>0.01999662841625368</v>
+        <v>1.11690664142431</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I129">
-        <v>0.9999974650769542</v>
+        <v>3.59723217753481e-05</v>
       </c>
     </row>
     <row r="130">
@@ -4261,22 +4896,27 @@
         </is>
       </c>
       <c r="C130">
-        <v>-0.01748448867492062</v>
+        <v>4.077807038182832</v>
       </c>
       <c r="D130">
-        <v>0.9360000000000001</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="E130">
-        <v>0.9988442477688081</v>
+        <v>2.116423134330694e-05</v>
       </c>
       <c r="F130">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G130">
-        <v>0.02872415126189475</v>
+        <v>1.146301788223826</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I130">
-        <v>0.9999974650769542</v>
+        <v>3.234858124017646e-05</v>
       </c>
     </row>
     <row r="131">
@@ -4287,26 +4927,31 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Aspartate</t>
+          <t>2-Hydroxyphenylacetate_iso1</t>
         </is>
       </c>
       <c r="C131">
-        <v>-0.02027465687621375</v>
+        <v>4.076418376472771</v>
       </c>
       <c r="D131">
-        <v>0.919</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="E131">
-        <v>0.9982888824665354</v>
+        <v>2.076100738348892e-05</v>
       </c>
       <c r="F131">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G131">
-        <v>0.03668448861388872</v>
+        <v>1.148741651280925</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I131">
-        <v>0.9999974650769542</v>
+        <v>3.199237203357308e-05</v>
       </c>
     </row>
     <row r="132">
@@ -4317,26 +4962,31 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Isopentenyl Pyrophosphate_[M-H2O-H]-</t>
+          <t>3-Hydroxyglutaric Acid_iso1</t>
         </is>
       </c>
       <c r="C132">
-        <v>-0.02812705013851296</v>
+        <v>4.022616009768846</v>
       </c>
       <c r="D132">
-        <v>0.835</v>
+        <v>0.0726</v>
       </c>
       <c r="E132">
-        <v>0.9949408710714314</v>
+        <v>2.618095078422939e-05</v>
       </c>
       <c r="F132">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G132">
-        <v>0.07831352451639793</v>
+        <v>1.139063379299906</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I132">
-        <v>0.9999974650769542</v>
+        <v>3.937614997948099e-05</v>
       </c>
     </row>
     <row r="133">
@@ -4347,26 +4997,31 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>D-?-Hydroxyisovaleric Acid_iso2</t>
+          <t>2-Keto-3-Deoxy-D-Gluconic Acid</t>
         </is>
       </c>
       <c r="C133">
-        <v>-0.02967184871487536</v>
+        <v>3.964644009514537</v>
       </c>
       <c r="D133">
-        <v>0.906</v>
+        <v>0.07240000000000001</v>
       </c>
       <c r="E133">
-        <v>0.9970752001705881</v>
+        <v>3.014875185113374e-05</v>
       </c>
       <c r="F133">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G133">
-        <v>0.04287180232318692</v>
+        <v>1.140261433802853</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I133">
-        <v>0.9999974650769542</v>
+        <v>4.498385196835827e-05</v>
       </c>
     </row>
     <row r="134">
@@ -4377,26 +5032,31 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Dehydroepiandrosterone 3-Sulfate (Dheas)_iso2</t>
+          <t>Saccharate_[M-H2O-H]-</t>
         </is>
       </c>
       <c r="C134">
-        <v>-0.03722015221239125</v>
+        <v>3.949314102105674</v>
       </c>
       <c r="D134">
-        <v>0.836</v>
+        <v>0.0745</v>
       </c>
       <c r="E134">
-        <v>0.9933550541757346</v>
+        <v>3.513911853315405e-05</v>
       </c>
       <c r="F134">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G134">
-        <v>0.07779372256098363</v>
+        <v>1.127843727251707</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I134">
-        <v>0.9999974650769542</v>
+        <v>5.161058034557e-05</v>
       </c>
     </row>
     <row r="135">
@@ -4407,26 +5067,31 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2-Hydroxyphenylacetate_iso1</t>
+          <t>Lauric Acid</t>
         </is>
       </c>
       <c r="C135">
-        <v>-0.04066217461557666</v>
+        <v>3.916780313401438</v>
       </c>
       <c r="D135">
-        <v>0.852</v>
+        <v>0.169</v>
       </c>
       <c r="E135">
-        <v>0.9935083526104347</v>
+        <v>0.0009458055212148244</v>
       </c>
       <c r="F135">
-        <v>0.9945806451612903</v>
+        <v>0.1826892655367232</v>
       </c>
       <c r="G135">
-        <v>0.0695604052332999</v>
+        <v>0.7721132953863264</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I135">
-        <v>0.9999974650769542</v>
+        <v>0.001217886561564294</v>
       </c>
     </row>
     <row r="136">
@@ -4437,26 +5102,31 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>3-Methyl-2-Oxopentanoic Acid</t>
+          <t>Isovalerylcarnitine</t>
         </is>
       </c>
       <c r="C136">
-        <v>-0.04099421413098626</v>
+        <v>3.902903754248122</v>
       </c>
       <c r="D136">
-        <v>0.777</v>
+        <v>0.169</v>
       </c>
       <c r="E136">
-        <v>0.9897098573298789</v>
+        <v>0.0009694292532227168</v>
       </c>
       <c r="F136">
-        <v>0.9945806451612903</v>
+        <v>0.1826892655367232</v>
       </c>
       <c r="G136">
-        <v>0.1095789811990857</v>
+        <v>0.7721132953863264</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I136">
-        <v>0.9999974650769542</v>
+        <v>0.001239814283033134</v>
       </c>
     </row>
     <row r="137">
@@ -4467,26 +5137,31 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Indoxyl Sulfate_iso3</t>
+          <t>Isopentenyl Pyrophosphate_[M-H2O-H]-</t>
         </is>
       </c>
       <c r="C137">
-        <v>-0.04358972776551851</v>
+        <v>3.881209544215836</v>
       </c>
       <c r="D137">
-        <v>0.907</v>
+        <v>0.0704</v>
       </c>
       <c r="E137">
-        <v>0.9957541226959777</v>
+        <v>3.366572764334365e-05</v>
       </c>
       <c r="F137">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G137">
-        <v>0.04239271293990473</v>
+        <v>1.152427340857888</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I137">
-        <v>0.9999974650769542</v>
+        <v>4.983588029093391e-05</v>
       </c>
     </row>
     <row r="138">
@@ -4497,26 +5172,31 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Mevalonate</t>
+          <t>Norleucine</t>
         </is>
       </c>
       <c r="C138">
-        <v>-0.05790293685939617</v>
+        <v>3.879188607525299</v>
       </c>
       <c r="D138">
-        <v>0.791</v>
+        <v>0.0716</v>
       </c>
       <c r="E138">
-        <v>0.9865159682416947</v>
+        <v>3.614029069646115e-05</v>
       </c>
       <c r="F138">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G138">
-        <v>0.1018235165023234</v>
+        <v>1.145086977692144</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I138">
-        <v>0.9999974650769542</v>
+        <v>5.266957093747827e-05</v>
       </c>
     </row>
     <row r="139">
@@ -4527,26 +5207,31 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Sebacate</t>
+          <t>Cysteine</t>
         </is>
       </c>
       <c r="C139">
-        <v>-0.06271929456802944</v>
+        <v>3.800917381683955</v>
       </c>
       <c r="D139">
-        <v>0.608</v>
+        <v>0.0704</v>
       </c>
       <c r="E139">
-        <v>0.9692740483013204</v>
+        <v>4.165996387379531e-05</v>
       </c>
       <c r="F139">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G139">
-        <v>0.2160964207272651</v>
+        <v>1.152427340857888</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I139">
-        <v>0.9999974650769542</v>
+        <v>6.024671698671937e-05</v>
       </c>
     </row>
     <row r="140">
@@ -4561,22 +5246,27 @@
         </is>
       </c>
       <c r="C140">
-        <v>-0.06743816099198416</v>
+        <v>3.795620456846784</v>
       </c>
       <c r="D140">
-        <v>0.797</v>
+        <v>0.0707</v>
       </c>
       <c r="E140">
-        <v>0.9848147178543649</v>
+        <v>4.293710802806519e-05</v>
       </c>
       <c r="F140">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G140">
-        <v>0.09854167860388763</v>
+        <v>1.150580586203101</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I140">
-        <v>0.9999974650769542</v>
+        <v>6.161966648302485e-05</v>
       </c>
     </row>
     <row r="141">
@@ -4587,26 +5277,31 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Isobutyrylcarnitine</t>
+          <t>Testosterone</t>
         </is>
       </c>
       <c r="C141">
-        <v>-0.06873193292509609</v>
+        <v>3.776550625266453</v>
       </c>
       <c r="D141">
-        <v>0.819</v>
+        <v>0.0788</v>
       </c>
       <c r="E141">
-        <v>0.9863699546557095</v>
+        <v>6.802607235847353e-05</v>
       </c>
       <c r="F141">
-        <v>0.9945806451612903</v>
+        <v>0.1097362962962963</v>
       </c>
       <c r="G141">
-        <v>0.08671609823958155</v>
+        <v>1.103473782510445</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I141">
-        <v>0.9999974650769542</v>
+        <v>9.403604120141929e-05</v>
       </c>
     </row>
     <row r="142">
@@ -4617,26 +5312,31 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Caffeate_iso2</t>
+          <t>Murodeoxycholic Acid Or Murocholic Acid</t>
         </is>
       </c>
       <c r="C142">
-        <v>-0.0687563271263532</v>
+        <v>3.757294364969819</v>
       </c>
       <c r="D142">
-        <v>0.833</v>
+        <v>0.169</v>
       </c>
       <c r="E142">
-        <v>0.9875153197720954</v>
+        <v>0.001255865315128803</v>
       </c>
       <c r="F142">
-        <v>0.9945806451612903</v>
+        <v>0.1826892655367232</v>
       </c>
       <c r="G142">
-        <v>0.07935499859321243</v>
+        <v>0.7721132953863264</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I142">
-        <v>0.9999974650769542</v>
+        <v>0.00158458173989406</v>
       </c>
     </row>
     <row r="143">
@@ -4647,26 +5347,31 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Phenylpyruvate</t>
+          <t>Glycoursodeoxycholic Acid_iso1</t>
         </is>
       </c>
       <c r="C143">
-        <v>-0.07691228717388418</v>
+        <v>3.741139480280688</v>
       </c>
       <c r="D143">
-        <v>0.59</v>
+        <v>0.07149999999999999</v>
       </c>
       <c r="E143">
-        <v>0.9602309591752266</v>
+        <v>5.173674487074199e-05</v>
       </c>
       <c r="F143">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G143">
-        <v>0.2291479883578558</v>
+        <v>1.145693958198919</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I143">
-        <v>0.9999974650769542</v>
+        <v>7.368566693711737e-05</v>
       </c>
     </row>
     <row r="144">
@@ -4677,26 +5382,31 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2-Hydroxybutyrate_iso1</t>
+          <t>Theobromine</t>
         </is>
       </c>
       <c r="C144">
-        <v>-0.07925710651991881</v>
+        <v>3.704126134161261</v>
       </c>
       <c r="D144">
-        <v>0.795</v>
+        <v>0.169</v>
       </c>
       <c r="E144">
-        <v>0.9819816829498464</v>
+        <v>0.001380368258093325</v>
       </c>
       <c r="F144">
-        <v>0.9945806451612903</v>
+        <v>0.1826892655367232</v>
       </c>
       <c r="G144">
-        <v>0.09963287134352969</v>
+        <v>0.7721132953863264</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I144">
-        <v>0.9999974650769542</v>
+        <v>0.001730061550143634</v>
       </c>
     </row>
     <row r="145">
@@ -4707,26 +5417,31 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Dehydroisoandrosterone Sulfate/Dhea Sulfate</t>
+          <t>Glutamate Acid</t>
         </is>
       </c>
       <c r="C145">
-        <v>-0.08117242051764957</v>
+        <v>3.672349599568159</v>
       </c>
       <c r="D145">
-        <v>0.793</v>
+        <v>0.168</v>
       </c>
       <c r="E145">
-        <v>0.9813496248883876</v>
+        <v>0.001429107343813448</v>
       </c>
       <c r="F145">
-        <v>0.9945806451612903</v>
+        <v>0.1826892655367232</v>
       </c>
       <c r="G145">
-        <v>0.1007268126823962</v>
+        <v>0.7746907182741372</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I145">
-        <v>0.9999974650769542</v>
+        <v>0.001779285964482969</v>
       </c>
     </row>
     <row r="146">
@@ -4737,26 +5452,31 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Xanthine</t>
+          <t>Aniline</t>
         </is>
       </c>
       <c r="C146">
-        <v>-0.08717463335064832</v>
+        <v>3.618620741957461</v>
       </c>
       <c r="D146">
-        <v>0.792</v>
+        <v>0.0694</v>
       </c>
       <c r="E146">
-        <v>0.9798766411546141</v>
+        <v>6.416812470058399e-05</v>
       </c>
       <c r="F146">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G146">
-        <v>0.1012748184105065</v>
+        <v>1.158640529545145</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I146">
-        <v>0.9999974650769542</v>
+        <v>9.002692122171485e-05</v>
       </c>
     </row>
     <row r="147">
@@ -4767,26 +5487,31 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Indoxyl Sulfate_iso4</t>
+          <t>Indole-3-Acetamide_[M+Na]+</t>
         </is>
       </c>
       <c r="C147">
-        <v>-0.08862923934768749</v>
+        <v>3.594002398872432</v>
       </c>
       <c r="D147">
-        <v>0.771</v>
+        <v>0.0649</v>
       </c>
       <c r="E147">
-        <v>0.9772140792001067</v>
+        <v>5.385234148225872e-05</v>
       </c>
       <c r="F147">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G147">
-        <v>0.112945621949043</v>
+        <v>1.187755303199631</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I147">
-        <v>0.9999974650769542</v>
+        <v>7.612210675687699e-05</v>
       </c>
     </row>
     <row r="148">
@@ -4797,26 +5522,31 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Succinate_iso1</t>
+          <t>Hyodeoxycholic Acid</t>
         </is>
       </c>
       <c r="C148">
-        <v>-0.1123530123601887</v>
+        <v>3.591904792108746</v>
       </c>
       <c r="D148">
-        <v>0.347</v>
+        <v>0.175</v>
       </c>
       <c r="E148">
-        <v>0.8878807327820198</v>
+        <v>0.001910137978771068</v>
       </c>
       <c r="F148">
-        <v>0.9696842105263158</v>
+        <v>0.1837988826815642</v>
       </c>
       <c r="G148">
-        <v>0.4596705252091263</v>
+        <v>0.7569619513137056</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I148">
-        <v>0.9999974650769542</v>
+        <v>0.00233242049108609</v>
       </c>
     </row>
     <row r="149">
@@ -4827,26 +5557,31 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Tauroursodeoxycholic Acid_iso1</t>
+          <t>2,3-Dihydroxybenzoate</t>
         </is>
       </c>
       <c r="C149">
-        <v>-0.124394028444698</v>
+        <v>3.519787501682138</v>
       </c>
       <c r="D149">
-        <v>0.891</v>
+        <v>0.167</v>
       </c>
       <c r="E149">
-        <v>0.9857461412681551</v>
+        <v>0.001837076111683131</v>
       </c>
       <c r="F149">
-        <v>0.9945806451612903</v>
+        <v>0.1826892655367232</v>
       </c>
       <c r="G149">
-        <v>0.0501222959631252</v>
+        <v>0.7772835288524167</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I149">
-        <v>0.9999974650769542</v>
+        <v>0.00227217308550282</v>
       </c>
     </row>
     <row r="150">
@@ -4857,26 +5592,31 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>N-Acetylneuraminate_iso2</t>
+          <t>Glycocholic Acid_iso2</t>
         </is>
       </c>
       <c r="C150">
-        <v>-0.13007635585076</v>
+        <v>3.509568678320687</v>
       </c>
       <c r="D150">
-        <v>0.637</v>
+        <v>0.168</v>
       </c>
       <c r="E150">
-        <v>0.9430249237386693</v>
+        <v>0.001910599763974776</v>
       </c>
       <c r="F150">
-        <v>0.9945806451612903</v>
+        <v>0.1826892655367232</v>
       </c>
       <c r="G150">
-        <v>0.1958605676646496</v>
+        <v>0.7746907182741372</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I150">
-        <v>0.9999974650769542</v>
+        <v>0.00233242049108609</v>
       </c>
     </row>
     <row r="151">
@@ -4887,26 +5627,31 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2-Keto-3-Deoxy-D-Gluconic Acid</t>
+          <t>Tauroursodeoxycholic Acid_iso1</t>
         </is>
       </c>
       <c r="C151">
-        <v>-0.1391428032073939</v>
+        <v>3.467775530237966</v>
       </c>
       <c r="D151">
-        <v>0.513</v>
+        <v>0.168</v>
       </c>
       <c r="E151">
-        <v>0.9113074435071632</v>
+        <v>0.00205847920312752</v>
       </c>
       <c r="F151">
-        <v>0.9945806451612903</v>
+        <v>0.1826892655367232</v>
       </c>
       <c r="G151">
-        <v>0.2898826348881837</v>
+        <v>0.7746907182741372</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I151">
-        <v>0.9999974650769542</v>
+        <v>0.002496736065728863</v>
       </c>
     </row>
     <row r="152">
@@ -4917,26 +5662,31 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Dehydroepiandrosterone 3-Sulfate (Dheas)_iso3</t>
+          <t>Ferulate</t>
         </is>
       </c>
       <c r="C152">
-        <v>-0.1436706728565031</v>
+        <v>3.386795136119302</v>
       </c>
       <c r="D152">
-        <v>0.64</v>
+        <v>0.167</v>
       </c>
       <c r="E152">
-        <v>0.9378939760240537</v>
+        <v>0.00233077271329293</v>
       </c>
       <c r="F152">
-        <v>0.9945806451612903</v>
+        <v>0.1826892655367232</v>
       </c>
       <c r="G152">
-        <v>0.1938200260161128</v>
+        <v>0.7772835288524167</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I152">
-        <v>0.9999974650769542</v>
+        <v>0.002808879936532506</v>
       </c>
     </row>
     <row r="153">
@@ -4947,26 +5697,31 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Dehydroepiandrosterone 3-Sulfate (Dheas)_iso1</t>
+          <t>Aspartate</t>
         </is>
       </c>
       <c r="C153">
-        <v>-0.1536682858311559</v>
+        <v>3.366842681761803</v>
       </c>
       <c r="D153">
-        <v>0.643</v>
+        <v>0.167</v>
       </c>
       <c r="E153">
-        <v>0.9343898430857518</v>
+        <v>0.002415508884623621</v>
       </c>
       <c r="F153">
-        <v>0.9945806451612903</v>
+        <v>0.1826892655367232</v>
       </c>
       <c r="G153">
-        <v>0.1917890270757779</v>
+        <v>0.7772835288524167</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I153">
-        <v>0.9999974650769542</v>
+        <v>0.002892456498784973</v>
       </c>
     </row>
     <row r="154">
@@ -4977,26 +5732,31 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Saccharate_[M-H2O-H]-</t>
+          <t>Cholate</t>
         </is>
       </c>
       <c r="C154">
-        <v>-0.1886001780082976</v>
+        <v>3.332501540158967</v>
       </c>
       <c r="D154">
-        <v>0.469</v>
+        <v>0.168</v>
       </c>
       <c r="E154">
-        <v>0.8669282187833764</v>
+        <v>0.002620245526569457</v>
       </c>
       <c r="F154">
-        <v>0.9945806451612903</v>
+        <v>0.1826892655367232</v>
       </c>
       <c r="G154">
-        <v>0.3288271572849167</v>
+        <v>0.7746907182741372</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I154">
-        <v>0.9999974650769542</v>
+        <v>0.003117760499968721</v>
       </c>
     </row>
     <row r="155">
@@ -5007,26 +5767,31 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Indoxyl Sulfate_iso1</t>
+          <t>Oxoproline</t>
         </is>
       </c>
       <c r="C155">
-        <v>-0.1952731989185042</v>
+        <v>3.324888095367838</v>
       </c>
       <c r="D155">
-        <v>0.483</v>
+        <v>0.073</v>
       </c>
       <c r="E155">
-        <v>0.8675276891476688</v>
+        <v>0.000166217103237857</v>
       </c>
       <c r="F155">
-        <v>0.9945806451612903</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G155">
-        <v>0.3160528692484879</v>
+        <v>1.136677139879544</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I155">
-        <v>0.9999974650769542</v>
+        <v>0.000228093543129322</v>
       </c>
     </row>
     <row r="156">
@@ -5037,26 +5802,31 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>_Linolenic Acid (18:3 N?3)</t>
+          <t>Ascorbate</t>
         </is>
       </c>
       <c r="C156">
-        <v>-0.2202659421994697</v>
+        <v>3.319270415376696</v>
       </c>
       <c r="D156">
-        <v>0.6889999999999999</v>
+        <v>0.168</v>
       </c>
       <c r="E156">
-        <v>0.9212239165858612</v>
+        <v>0.002682822980534442</v>
       </c>
       <c r="F156">
-        <v>0.9945806451612903</v>
+        <v>0.1826892655367232</v>
       </c>
       <c r="G156">
-        <v>0.1617807780923742</v>
+        <v>0.7746907182741372</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I156">
-        <v>0.9999974650769542</v>
+        <v>0.003172142895223114</v>
       </c>
     </row>
     <row r="157">
@@ -5067,26 +5837,31 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Cysteate</t>
+          <t>Deoxyuridine-Monophosphate</t>
         </is>
       </c>
       <c r="C157">
-        <v>-0.2546868396392876</v>
+        <v>3.304839170013913</v>
       </c>
       <c r="D157">
-        <v>0.303</v>
+        <v>0.168</v>
       </c>
       <c r="E157">
-        <v>0.7377857484921889</v>
+        <v>0.002752781681560793</v>
       </c>
       <c r="F157">
-        <v>0.9696842105263158</v>
+        <v>0.1826892655367232</v>
       </c>
       <c r="G157">
-        <v>0.518557371497695</v>
+        <v>0.7746907182741372</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I157">
-        <v>0.9999974650769542</v>
+        <v>0.003214428298965398</v>
       </c>
     </row>
     <row r="158">
@@ -5097,26 +5872,31 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Myristic Acid_iso2</t>
+          <t>Indole-3-Carboxaldehyde_iso2</t>
         </is>
       </c>
       <c r="C158">
-        <v>-0.2655008032684975</v>
+        <v>3.284489619227925</v>
       </c>
       <c r="D158">
-        <v>0.442</v>
+        <v>0.166</v>
       </c>
       <c r="E158">
-        <v>0.8051176133437909</v>
+        <v>0.002744436022245008</v>
       </c>
       <c r="F158">
-        <v>0.9897011494252873</v>
+        <v>0.1826892655367232</v>
       </c>
       <c r="G158">
-        <v>0.3545777306509081</v>
+        <v>0.7798919119599449</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I158">
-        <v>0.9999974650769542</v>
+        <v>0.003214428298965398</v>
       </c>
     </row>
     <row r="159">
@@ -5127,26 +5907,31 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Ascorbate</t>
+          <t>2-Hydroxyoctanoic Acid_iso2</t>
         </is>
       </c>
       <c r="C159">
-        <v>-0.2871505991200069</v>
+        <v>3.274156715398575</v>
       </c>
       <c r="D159">
-        <v>0.302</v>
+        <v>0.168</v>
       </c>
       <c r="E159">
-        <v>0.7090611360090737</v>
+        <v>0.002907643666571819</v>
       </c>
       <c r="F159">
-        <v>0.9696842105263158</v>
+        <v>0.1826892655367232</v>
       </c>
       <c r="G159">
-        <v>0.5199930570428494</v>
+        <v>0.7746907182741372</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I159">
-        <v>0.9999974650769542</v>
+        <v>0.003351975723827482</v>
       </c>
     </row>
     <row r="160">
@@ -5157,26 +5942,31 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Glutamate Acid</t>
+          <t>Biliverdin_iso2</t>
         </is>
       </c>
       <c r="C160">
-        <v>-0.2973669657513047</v>
+        <v>3.270015587787113</v>
       </c>
       <c r="D160">
-        <v>0.583</v>
+        <v>0.167</v>
       </c>
       <c r="E160">
-        <v>0.8517606434654825</v>
+        <v>0.002872570819924163</v>
       </c>
       <c r="F160">
-        <v>0.9945806451612903</v>
+        <v>0.1826892655367232</v>
       </c>
       <c r="G160">
-        <v>0.234331445240986</v>
+        <v>0.7772835288524167</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I160">
-        <v>0.9999974650769542</v>
+        <v>0.003333600704603349</v>
       </c>
     </row>
     <row r="161">
@@ -5187,26 +5977,31 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>4-Methylcatechol_iso2</t>
+          <t>Glycoursodeoxycholic Acid_iso2</t>
         </is>
       </c>
       <c r="C161">
-        <v>-0.3091743294618848</v>
+        <v>3.268194568666648</v>
       </c>
       <c r="D161">
-        <v>0.725</v>
+        <v>0.172</v>
       </c>
       <c r="E161">
-        <v>0.9053574857906324</v>
+        <v>0.003173644099635377</v>
       </c>
       <c r="F161">
-        <v>0.9945806451612903</v>
+        <v>0.1826892655367232</v>
       </c>
       <c r="G161">
-        <v>0.1396619934290063</v>
+        <v>0.7644715530924511</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I161">
-        <v>0.9999974650769542</v>
+        <v>0.003582385041363903</v>
       </c>
     </row>
     <row r="162">
@@ -5217,26 +6012,31 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Lauric Acid</t>
+          <t>Indoxyl Sulfate_iso1</t>
         </is>
       </c>
       <c r="C162">
-        <v>-0.3192249093621603</v>
+        <v>3.249185044360342</v>
       </c>
       <c r="D162">
-        <v>0.476</v>
+        <v>0.166</v>
       </c>
       <c r="E162">
-        <v>0.7890129089378169</v>
+        <v>0.002924063929296314</v>
       </c>
       <c r="F162">
-        <v>0.9945806451612903</v>
+        <v>0.1826892655367232</v>
       </c>
       <c r="G162">
-        <v>0.3223930472795069</v>
+        <v>0.7798919119599449</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I162">
-        <v>0.9999974650769542</v>
+        <v>0.003351975723827482</v>
       </c>
     </row>
     <row r="163">
@@ -5247,26 +6047,31 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>3-Hydroxymyristic Acid</t>
+          <t>Methyl 4-Aminobutyrate</t>
         </is>
       </c>
       <c r="C163">
-        <v>-0.3200460369618475</v>
+        <v>3.196712904081925</v>
       </c>
       <c r="D163">
-        <v>0.0672</v>
+        <v>0.165</v>
       </c>
       <c r="E163">
-        <v>0.4214093652865461</v>
+        <v>0.003151525509622364</v>
       </c>
       <c r="F163">
-        <v>0.9696842105263158</v>
+        <v>0.1826892655367232</v>
       </c>
       <c r="G163">
-        <v>1.172630726946175</v>
+        <v>0.7825160557860937</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I163">
-        <v>0.9999974650769542</v>
+        <v>0.003582385041363903</v>
       </c>
     </row>
     <row r="164">
@@ -5277,26 +6082,31 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Indoxyl Sulfate_iso2</t>
+          <t>Glycocholic Acid_iso1</t>
         </is>
       </c>
       <c r="C164">
-        <v>-0.366555805831734</v>
+        <v>3.191332748837003</v>
       </c>
       <c r="D164">
-        <v>0.231</v>
+        <v>0.165</v>
       </c>
       <c r="E164">
-        <v>0.584424314983902</v>
+        <v>0.003182225010147722</v>
       </c>
       <c r="F164">
-        <v>0.9696842105263158</v>
+        <v>0.1826892655367232</v>
       </c>
       <c r="G164">
-        <v>0.6363880201078557</v>
+        <v>0.7825160557860937</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I164">
-        <v>0.9999974650769542</v>
+        <v>0.003582385041363903</v>
       </c>
     </row>
     <row r="165">
@@ -5307,26 +6117,31 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Deoxyuridine-Monophosphate</t>
+          <t>Indoxyl Sulfate_iso2</t>
         </is>
       </c>
       <c r="C165">
-        <v>-0.3810944213573154</v>
+        <v>3.162622874331884</v>
       </c>
       <c r="D165">
-        <v>0.48</v>
+        <v>0.168</v>
       </c>
       <c r="E165">
-        <v>0.7560017726189477</v>
+        <v>0.003547687958083921</v>
       </c>
       <c r="F165">
-        <v>0.9945806451612903</v>
+        <v>0.1826892655367232</v>
       </c>
       <c r="G165">
-        <v>0.3187587626244128</v>
+        <v>0.7746907182741372</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I165">
-        <v>0.9999974650769542</v>
+        <v>0.003946540450412882</v>
       </c>
     </row>
     <row r="166">
@@ -5337,26 +6152,31 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Glycocholic Acid_iso1</t>
+          <t>L-Arginine</t>
         </is>
       </c>
       <c r="C166">
-        <v>-0.3992210792869717</v>
+        <v>3.154343907274595</v>
       </c>
       <c r="D166">
-        <v>0.295</v>
+        <v>0.167</v>
       </c>
       <c r="E166">
-        <v>0.6142452022911739</v>
+        <v>0.003533299374618791</v>
       </c>
       <c r="F166">
-        <v>0.9696842105263158</v>
+        <v>0.1826892655367232</v>
       </c>
       <c r="G166">
-        <v>0.530177984021837</v>
+        <v>0.7772835288524167</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I166">
-        <v>0.9999974650769542</v>
+        <v>0.003946540450412882</v>
       </c>
     </row>
     <row r="167">
@@ -5367,26 +6187,31 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Dehydroepiandrosterone (Dhea)</t>
+          <t>N-Acetylneuraminate_iso2</t>
         </is>
       </c>
       <c r="C167">
-        <v>-0.4379166260822647</v>
+        <v>3.153688022686814</v>
       </c>
       <c r="D167">
-        <v>0.361</v>
+        <v>0.169</v>
       </c>
       <c r="E167">
-        <v>0.6400664251927699</v>
+        <v>0.003672785356212212</v>
       </c>
       <c r="F167">
-        <v>0.9696842105263158</v>
+        <v>0.1826892655367232</v>
       </c>
       <c r="G167">
-        <v>0.4424927980943421</v>
+        <v>0.7721132953863264</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I167">
-        <v>0.9999974650769542</v>
+        <v>0.004037916064139741</v>
       </c>
     </row>
     <row r="168">
@@ -5397,26 +6222,31 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2-Hydroxyoctanoic Acid_iso2</t>
+          <t>Glutamine_iso1</t>
         </is>
       </c>
       <c r="C168">
-        <v>-0.4729522437967834</v>
+        <v>3.142733596463366</v>
       </c>
       <c r="D168">
-        <v>0.15</v>
+        <v>0.0974</v>
       </c>
       <c r="E168">
-        <v>0.4076904255035605</v>
+        <v>0.0006626897494607359</v>
       </c>
       <c r="F168">
-        <v>0.9696842105263158</v>
+        <v>0.1317352517985612</v>
       </c>
       <c r="G168">
-        <v>0.8239087409443188</v>
+        <v>1.011441043121384</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I168">
-        <v>0.9999974650769542</v>
+        <v>0.0008592115372318507</v>
       </c>
     </row>
     <row r="169">
@@ -5427,26 +6257,31 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Murodeoxycholic Acid Or Murocholic Acid</t>
+          <t>Mevalonate</t>
         </is>
       </c>
       <c r="C169">
-        <v>-0.4760924725597117</v>
+        <v>3.130871800024197</v>
       </c>
       <c r="D169">
-        <v>0.36</v>
+        <v>0.166</v>
       </c>
       <c r="E169">
-        <v>0.6148355357208795</v>
+        <v>0.003616249659617019</v>
       </c>
       <c r="F169">
-        <v>0.9696842105263158</v>
+        <v>0.1826892655367232</v>
       </c>
       <c r="G169">
-        <v>0.4436974992327127</v>
+        <v>0.7798919119599449</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I169">
-        <v>0.9999974650769542</v>
+        <v>0.003999146682399997</v>
       </c>
     </row>
     <row r="170">
@@ -5457,26 +6292,31 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Chenodeoxycholic Acid_iso2</t>
+          <t>Glutarylcarnitine</t>
         </is>
       </c>
       <c r="C170">
-        <v>-0.5308376811736867</v>
+        <v>3.011651584136653</v>
       </c>
       <c r="D170">
-        <v>0.117</v>
+        <v>0.104</v>
       </c>
       <c r="E170">
-        <v>0.3201532711496462</v>
+        <v>0.001095587072598235</v>
       </c>
       <c r="F170">
-        <v>0.9696842105263158</v>
+        <v>0.1386666666666667</v>
       </c>
       <c r="G170">
-        <v>0.9318141382538383</v>
+        <v>0.9829666607012196</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I170">
-        <v>0.9999974650769542</v>
+        <v>0.001391691686813974</v>
       </c>
     </row>
     <row r="171">
@@ -5487,26 +6327,31 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>_13-Hydroxyoctadecadienoic Acid</t>
+          <t>5?-Dihydroprogesterone/5A-Pregnane-3,20-Dione_[M+Na]+_iso1</t>
         </is>
       </c>
       <c r="C171">
-        <v>-0.5583331602162989</v>
+        <v>3.005243258421274</v>
       </c>
       <c r="D171">
-        <v>0.0386</v>
+        <v>0.0669</v>
       </c>
       <c r="E171">
-        <v>0.1624968038005299</v>
+        <v>0.0002952023149781593</v>
       </c>
       <c r="F171">
-        <v>0.9696842105263158</v>
+        <v>0.1095488721804511</v>
       </c>
       <c r="G171">
-        <v>1.413412695328245</v>
+        <v>1.174573882232177</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I171">
-        <v>0.9999974650769542</v>
+        <v>0.0003992664404021148</v>
       </c>
     </row>
     <row r="172">
@@ -5517,26 +6362,31 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Hyodeoxycholic Acid</t>
+          <t>Citrulline</t>
         </is>
       </c>
       <c r="C172">
-        <v>-0.5814071199908039</v>
+        <v>2.974252438692094</v>
       </c>
       <c r="D172">
-        <v>0.37</v>
+        <v>0.0804</v>
       </c>
       <c r="E172">
-        <v>0.5609826219871871</v>
+        <v>0.0005545684178027822</v>
       </c>
       <c r="F172">
-        <v>0.9696842105263158</v>
+        <v>0.1111411764705882</v>
       </c>
       <c r="G172">
-        <v>0.431798275933005</v>
+        <v>1.094743951251549</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I172">
-        <v>0.9999974650769542</v>
+        <v>0.0007342173418797398</v>
       </c>
     </row>
     <row r="173">
@@ -5547,26 +6397,31 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Succinate_iso2</t>
+          <t>Phenylpyruvate</t>
         </is>
       </c>
       <c r="C173">
-        <v>-0.6080329265572006</v>
+        <v>2.855138680711613</v>
       </c>
       <c r="D173">
-        <v>0.365</v>
+        <v>0.164</v>
       </c>
       <c r="E173">
-        <v>0.5418257607082351</v>
+        <v>0.005731526439704896</v>
       </c>
       <c r="F173">
-        <v>0.9696842105263158</v>
+        <v>0.1826892655367232</v>
       </c>
       <c r="G173">
-        <v>0.4377071355435253</v>
+        <v>0.7851561519523022</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I173">
-        <v>0.9999974650769542</v>
+        <v>0.006233143628669275</v>
       </c>
     </row>
     <row r="174">
@@ -5577,26 +6432,31 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Glycocholic Acid_iso2</t>
+          <t>Indole-3-Carboxaldehyde_iso1</t>
         </is>
       </c>
       <c r="C174">
-        <v>-0.6427452126668031</v>
+        <v>2.835480310228276</v>
       </c>
       <c r="D174">
-        <v>0.267</v>
+        <v>0.162</v>
       </c>
       <c r="E174">
-        <v>0.4279498305235706</v>
+        <v>0.005735818339147791</v>
       </c>
       <c r="F174">
-        <v>0.9696842105263158</v>
+        <v>0.1826892655367232</v>
       </c>
       <c r="G174">
-        <v>0.5734887386354247</v>
+        <v>0.790484985457369</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I174">
-        <v>0.9999974650769542</v>
+        <v>0.006233143628669275</v>
       </c>
     </row>
     <row r="175">
@@ -5607,26 +6467,31 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Glycoursodeoxycholic Acid_iso2</t>
+          <t>6-Carboxyhexanoate</t>
         </is>
       </c>
       <c r="C175">
-        <v>-0.7086504999517361</v>
+        <v>2.722632156188487</v>
       </c>
       <c r="D175">
-        <v>0.232</v>
+        <v>0.161</v>
       </c>
       <c r="E175">
-        <v>0.3551016933251245</v>
+        <v>0.006925938400898167</v>
       </c>
       <c r="F175">
-        <v>0.9696842105263158</v>
+        <v>0.1826892655367232</v>
       </c>
       <c r="G175">
-        <v>0.6345120151091003</v>
+        <v>0.7931741239681502</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I175">
-        <v>0.9999974650769542</v>
+        <v>0.007483197812464686</v>
       </c>
     </row>
     <row r="176">
@@ -5637,26 +6502,31 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Chenodeoxycholic Acid_iso1</t>
+          <t>Glycoursodeoxycholic Acid_[M+H-H2O]+</t>
         </is>
       </c>
       <c r="C176">
-        <v>-0.717048976522771</v>
+        <v>2.721896881470068</v>
       </c>
       <c r="D176">
-        <v>0.128</v>
+        <v>0.165</v>
       </c>
       <c r="E176">
-        <v>0.2289949064932454</v>
+        <v>0.007414331300508575</v>
       </c>
       <c r="F176">
-        <v>0.9696842105263158</v>
+        <v>0.1826892655367232</v>
       </c>
       <c r="G176">
-        <v>0.8927900303521317</v>
+        <v>0.7825160557860937</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I176">
-        <v>0.9999974650769542</v>
+        <v>0.007965110197117783</v>
       </c>
     </row>
     <row r="177">
@@ -5667,26 +6537,31 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Glycoursodeoxycholic Acid_[M+H-H2O]+</t>
+          <t>5?-Dihydroprogesterone/5A-Pregnane-3,20-Dione_[M+Na]+_iso2</t>
         </is>
       </c>
       <c r="C177">
-        <v>-0.7930785651412112</v>
+        <v>2.677730927708194</v>
       </c>
       <c r="D177">
-        <v>0.0955</v>
+        <v>0.161</v>
       </c>
       <c r="E177">
-        <v>0.155261056649932</v>
+        <v>0.007517840669560213</v>
       </c>
       <c r="F177">
-        <v>0.9696842105263158</v>
+        <v>0.1826892655367232</v>
       </c>
       <c r="G177">
-        <v>1.019996628416254</v>
+        <v>0.7931741239681502</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I177">
-        <v>0.9999974650769542</v>
+        <v>0.008030420715212046</v>
       </c>
     </row>
     <row r="178">
@@ -5697,26 +6572,31 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Ferulate</t>
+          <t>4-Quinolinecarboxylate</t>
         </is>
       </c>
       <c r="C178">
-        <v>-0.8636531822959123</v>
+        <v>2.646446130006409</v>
       </c>
       <c r="D178">
-        <v>0.392</v>
+        <v>0.165</v>
       </c>
       <c r="E178">
-        <v>0.4453897493268126</v>
+        <v>0.00849402260617718</v>
       </c>
       <c r="F178">
-        <v>0.9696842105263158</v>
+        <v>0.1826892655367232</v>
       </c>
       <c r="G178">
-        <v>0.4067139329795427</v>
+        <v>0.7825160557860937</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I178">
-        <v>0.9999974650769542</v>
+        <v>0.009021899717295535</v>
       </c>
     </row>
     <row r="179">
@@ -5727,26 +6607,31 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Tauro-?-Muricholic Acid</t>
+          <t>Succinate_iso1</t>
         </is>
       </c>
       <c r="C179">
-        <v>-0.9443279991032961</v>
+        <v>2.528973620683995</v>
       </c>
       <c r="D179">
-        <v>0.247</v>
+        <v>0.171</v>
       </c>
       <c r="E179">
-        <v>0.2669972135748757</v>
+        <v>0.01148860760280084</v>
       </c>
       <c r="F179">
-        <v>0.9696842105263158</v>
+        <v>0.1826892655367232</v>
       </c>
       <c r="G179">
-        <v>0.6073030467403343</v>
+        <v>0.7670038896078462</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I179">
-        <v>0.9999974650769542</v>
+        <v>0.01206624709120982</v>
       </c>
     </row>
     <row r="180">
@@ -5757,26 +6642,31 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Theobromine</t>
+          <t>Sphinganine</t>
         </is>
       </c>
       <c r="C180">
-        <v>-0.9842468563082277</v>
+        <v>2.487020949392182</v>
       </c>
       <c r="D180">
-        <v>0.145</v>
+        <v>0.158</v>
       </c>
       <c r="E180">
-        <v>0.1494786244227061</v>
+        <v>0.0101635022490722</v>
       </c>
       <c r="F180">
-        <v>0.9696842105263158</v>
+        <v>0.1826892655367232</v>
       </c>
       <c r="G180">
-        <v>0.8386319977650252</v>
+        <v>0.8013429130455774</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I180">
-        <v>0.9999974650769542</v>
+        <v>0.01073448552149199</v>
       </c>
     </row>
     <row r="181">
@@ -5787,26 +6677,26 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Taurohyodeoxycholic Acid</t>
+          <t>3-Methyl-2-Oxopentanoic Acid</t>
         </is>
       </c>
       <c r="C181">
-        <v>-0.9936188035249162</v>
+        <v>2.359242872016427</v>
       </c>
       <c r="D181">
-        <v>0.329</v>
+        <v>0.352</v>
       </c>
       <c r="E181">
-        <v>0.3313422109077858</v>
+        <v>0.08514987427306094</v>
       </c>
       <c r="F181">
-        <v>0.9696842105263158</v>
+        <v>0.352</v>
       </c>
       <c r="G181">
-        <v>0.4828041020500257</v>
+        <v>0.453457336521869</v>
       </c>
       <c r="I181">
-        <v>0.9999974650769542</v>
+        <v>0.08893431312964141</v>
       </c>
     </row>
     <row r="182">
@@ -5817,26 +6707,26 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Glutarylcarnitine</t>
+          <t>Chenodeoxycholic Acid_iso2</t>
         </is>
       </c>
       <c r="C182">
-        <v>-1.018142904575087</v>
+        <v>2.034164748031945</v>
       </c>
       <c r="D182">
-        <v>0.321</v>
+        <v>0.35</v>
       </c>
       <c r="E182">
-        <v>0.3144500008941569</v>
+        <v>0.1181841642290278</v>
       </c>
       <c r="F182">
-        <v>0.9696842105263158</v>
+        <v>0.3518716577540107</v>
       </c>
       <c r="G182">
-        <v>0.4934949675951279</v>
+        <v>0.4559319556497244</v>
       </c>
       <c r="I182">
-        <v>0.9999974650769542</v>
+        <v>0.1227548225141283</v>
       </c>
     </row>
     <row r="183">
@@ -5847,26 +6737,26 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Glycocholate</t>
+          <t>Glycodeoxycholic acid</t>
         </is>
       </c>
       <c r="C183">
-        <v>-1.043980492947819</v>
+        <v>1.947941270546039</v>
       </c>
       <c r="D183">
-        <v>0.226</v>
+        <v>0.347</v>
       </c>
       <c r="E183">
-        <v>0.2116907150644482</v>
+        <v>0.127229790802508</v>
       </c>
       <c r="F183">
-        <v>0.9696842105263158</v>
+        <v>0.3507311827956989</v>
       </c>
       <c r="G183">
-        <v>0.645891560852599</v>
+        <v>0.4596705252091263</v>
       </c>
       <c r="I183">
-        <v>0.9999974650769542</v>
+        <v>0.131424179510283</v>
       </c>
     </row>
     <row r="184">
@@ -5877,26 +6767,26 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Glycocholic Acid_iso3</t>
+          <t>Dehydroepiandrosterone (Dhea)</t>
         </is>
       </c>
       <c r="C184">
-        <v>-1.056297914018173</v>
+        <v>1.810485557106091</v>
       </c>
       <c r="D184">
-        <v>0.219</v>
+        <v>0.343</v>
       </c>
       <c r="E184">
-        <v>0.2010538965076853</v>
+        <v>0.1440975895482965</v>
       </c>
       <c r="F184">
-        <v>0.9696842105263158</v>
+        <v>0.3507311827956989</v>
       </c>
       <c r="G184">
-        <v>0.6595558851598816</v>
+        <v>0.4647058799572295</v>
       </c>
       <c r="I184">
-        <v>0.9999974650769542</v>
+        <v>0.1480346821589057</v>
       </c>
     </row>
     <row r="185">
@@ -5907,26 +6797,26 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Cholate</t>
+          <t>_13-Hydroxyoctadecadienoic Acid</t>
         </is>
       </c>
       <c r="C185">
-        <v>-1.063248074014206</v>
+        <v>1.691189375463346</v>
       </c>
       <c r="D185">
-        <v>0.188</v>
+        <v>0.346</v>
       </c>
       <c r="E185">
-        <v>0.1691413260890069</v>
+        <v>0.1661461933378691</v>
       </c>
       <c r="F185">
-        <v>0.9696842105263158</v>
+        <v>0.3507311827956989</v>
       </c>
       <c r="G185">
-        <v>0.7258421507363202</v>
+        <v>0.4609239012072234</v>
       </c>
       <c r="I185">
-        <v>0.9999974650769542</v>
+        <v>0.1697580671060837</v>
       </c>
     </row>
     <row r="186">
@@ -5937,26 +6827,26 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Glycodeoxycholic acid</t>
+          <t>Glycochenodeoxycholate</t>
         </is>
       </c>
       <c r="C186">
-        <v>-1.114880532897857</v>
+        <v>1.660629230215725</v>
       </c>
       <c r="D186">
-        <v>0.2</v>
+        <v>0.346</v>
       </c>
       <c r="E186">
-        <v>0.16623862921566</v>
+        <v>0.1716233191072764</v>
       </c>
       <c r="F186">
-        <v>0.9696842105263158</v>
+        <v>0.3507311827956989</v>
       </c>
       <c r="G186">
-        <v>0.6989700043360187</v>
+        <v>0.4609239012072234</v>
       </c>
       <c r="I186">
-        <v>0.9999974650769542</v>
+        <v>0.1744063999576647</v>
       </c>
     </row>
     <row r="187">
@@ -5967,26 +6857,26 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Tauroursodeoxycholic Acid_iso2</t>
+          <t>Cysteate</t>
         </is>
       </c>
       <c r="C187">
-        <v>-1.231531202910383</v>
+        <v>1.350236225413576</v>
       </c>
       <c r="D187">
-        <v>0.137</v>
+        <v>0.332</v>
       </c>
       <c r="E187">
-        <v>0.08646581545094408</v>
+        <v>0.2256437421763332</v>
       </c>
       <c r="F187">
-        <v>0.9696842105263158</v>
+        <v>0.3448397790055249</v>
       </c>
       <c r="G187">
-        <v>0.8632794328435932</v>
+        <v>0.4788619162959637</v>
       </c>
       <c r="I187">
-        <v>0.9999974650769542</v>
+        <v>0.2280700189739282</v>
       </c>
     </row>
     <row r="188">
@@ -5997,31 +6887,26 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Glycochenodeoxycholate</t>
+          <t>Chenodeoxycholic Acid_iso1</t>
         </is>
       </c>
       <c r="C188">
-        <v>-1.353315344018582</v>
+        <v>1.323555133764121</v>
       </c>
       <c r="D188">
-        <v>0.0547</v>
+        <v>0.339</v>
       </c>
       <c r="E188">
-        <v>0.01959290733045402</v>
+        <v>0.2388874852648788</v>
       </c>
       <c r="F188">
-        <v>0.9696842105263158</v>
+        <v>0.3501758241758242</v>
       </c>
       <c r="G188">
-        <v>1.262012673666569</v>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+        <v>0.4698003017969178</v>
       </c>
       <c r="I188">
-        <v>0.9999974650769542</v>
+        <v>0.2401649584481134</v>
       </c>
     </row>
     <row r="189">
@@ -6032,26 +6917,26 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Glycoursodeoxycholic Acid_iso1</t>
+          <t>3-Hydroxymyristic Acid</t>
         </is>
       </c>
       <c r="C189">
-        <v>-1.451513110580447</v>
+        <v>0.7950554419288623</v>
       </c>
       <c r="D189">
-        <v>0.172</v>
+        <v>0.308</v>
       </c>
       <c r="E189">
-        <v>0.07768899762142739</v>
+        <v>0.3920752823500145</v>
       </c>
       <c r="F189">
-        <v>0.9696842105263158</v>
+        <v>0.3216888888888889</v>
       </c>
       <c r="G189">
-        <v>0.7644715530924511</v>
+        <v>0.5114492834995558</v>
       </c>
       <c r="I189">
-        <v>0.9999974650769542</v>
+        <v>0.3920752823500145</v>
       </c>
     </row>
   </sheetData>
